--- a/src/Spring Webflux.xlsx
+++ b/src/Spring Webflux.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeongsuwon/projects/Java-Concurrency-Programming/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C461D74-265D-5842-B3A9-78B3C8BAE80A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F242191F-347E-DB4D-9514-4550890A13CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34560" yWindow="-5960" windowWidth="51200" windowHeight="26560" tabRatio="711" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20140" tabRatio="711" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Part1-자바 스레드 &amp; 비동기 프로그래밍" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="136">
   <si>
     <t>비고</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -211,10 +211,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>개요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Condition</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -232,10 +228,6 @@
   </si>
   <si>
     <t>Java Synchronization</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동기 vs 비동기 &amp; Blocking vs Non Blocking</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1489,11 +1481,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M94"/>
+  <dimension ref="B1:M93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <pane ySplit="2" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -1587,7 +1579,7 @@
         <v>36</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D5" s="26"/>
       <c r="E5" s="7" t="s">
@@ -1623,7 +1615,7 @@
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
       <c r="E7" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="14"/>
@@ -1655,7 +1647,7 @@
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
       <c r="E9" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="14"/>
@@ -1671,7 +1663,7 @@
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
       <c r="E10" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="14"/>
@@ -1687,13 +1679,13 @@
         <v>40</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="25" t="s">
         <v>28</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="14"/>
@@ -1709,7 +1701,7 @@
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
       <c r="E12" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="14"/>
@@ -1725,7 +1717,7 @@
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
       <c r="E13" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="14"/>
@@ -1740,10 +1732,10 @@
       <c r="B14" s="28"/>
       <c r="C14" s="22"/>
       <c r="D14" s="25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="14"/>
@@ -1759,7 +1751,7 @@
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
       <c r="E15" s="17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="14"/>
@@ -1791,7 +1783,7 @@
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
       <c r="E17" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="14"/>
@@ -1807,7 +1799,7 @@
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
       <c r="E18" s="17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
@@ -1822,10 +1814,10 @@
       <c r="B19" s="28"/>
       <c r="C19" s="22"/>
       <c r="D19" s="25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="14"/>
@@ -1841,7 +1833,7 @@
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
       <c r="E20" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="14"/>
@@ -1889,7 +1881,7 @@
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
       <c r="E23" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="14"/>
@@ -1905,13 +1897,13 @@
         <v>39</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D24" s="25" t="s">
         <v>34</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="14"/>
@@ -1927,7 +1919,7 @@
       <c r="C25" s="38"/>
       <c r="D25" s="22"/>
       <c r="E25" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="14"/>
@@ -1943,7 +1935,7 @@
       <c r="C26" s="38"/>
       <c r="D26" s="22"/>
       <c r="E26" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="14"/>
@@ -1974,7 +1966,7 @@
       <c r="B28" s="28"/>
       <c r="C28" s="22"/>
       <c r="D28" s="25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E28" s="17" t="s">
         <v>41</v>
@@ -2038,16 +2030,16 @@
     </row>
     <row r="32" spans="2:13" ht="20" customHeight="1">
       <c r="B32" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D32" s="25" t="s">
         <v>38</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F32" s="13"/>
       <c r="G32" s="14"/>
@@ -2063,7 +2055,7 @@
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
       <c r="E33" s="17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F33" s="13"/>
       <c r="G33" s="14"/>
@@ -2079,7 +2071,7 @@
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
       <c r="E34" s="17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F34" s="13"/>
       <c r="G34" s="14"/>
@@ -2095,7 +2087,7 @@
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
       <c r="E35" s="17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F35" s="13"/>
       <c r="G35" s="14"/>
@@ -2111,7 +2103,7 @@
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
       <c r="E36" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F36" s="13"/>
       <c r="G36" s="14"/>
@@ -2127,7 +2119,7 @@
       <c r="C37" s="22"/>
       <c r="D37" s="39"/>
       <c r="E37" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F37" s="13"/>
       <c r="G37" s="14"/>
@@ -2143,7 +2135,7 @@
       <c r="C38" s="22"/>
       <c r="D38" s="39"/>
       <c r="E38" s="17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F38" s="13"/>
       <c r="G38" s="14"/>
@@ -2159,11 +2151,11 @@
       <c r="C39" s="22"/>
       <c r="D39" s="39"/>
       <c r="E39" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F39" s="13"/>
       <c r="G39" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
@@ -2179,7 +2171,7 @@
         <v>42</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F40" s="13"/>
       <c r="G40" s="14"/>
@@ -2195,7 +2187,7 @@
       <c r="C41" s="22"/>
       <c r="D41" s="39"/>
       <c r="E41" s="17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F41" s="13"/>
       <c r="G41" s="14"/>
@@ -2211,7 +2203,7 @@
       <c r="C42" s="22"/>
       <c r="D42" s="39"/>
       <c r="E42" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F42" s="13"/>
       <c r="G42" s="14"/>
@@ -2227,7 +2219,7 @@
       <c r="C43" s="22"/>
       <c r="D43" s="39"/>
       <c r="E43" s="17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F43" s="13"/>
       <c r="G43" s="14"/>
@@ -2243,7 +2235,7 @@
       <c r="C44" s="22"/>
       <c r="D44" s="39"/>
       <c r="E44" s="17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F44" s="13"/>
       <c r="G44" s="14"/>
@@ -2259,7 +2251,7 @@
       <c r="C45" s="22"/>
       <c r="D45" s="22"/>
       <c r="E45" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="17"/>
@@ -2275,7 +2267,7 @@
       <c r="C46" s="22"/>
       <c r="D46" s="22"/>
       <c r="E46" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="17"/>
@@ -2291,7 +2283,7 @@
       <c r="C47" s="22"/>
       <c r="D47" s="22"/>
       <c r="E47" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="17"/>
@@ -2306,10 +2298,10 @@
       <c r="B48" s="28"/>
       <c r="C48" s="39"/>
       <c r="D48" s="47" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F48" s="19"/>
       <c r="G48" s="17"/>
@@ -2325,7 +2317,7 @@
       <c r="C49" s="39"/>
       <c r="D49" s="48"/>
       <c r="E49" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F49" s="19"/>
       <c r="G49" s="17"/>
@@ -2341,7 +2333,7 @@
       <c r="C50" s="39"/>
       <c r="D50" s="48"/>
       <c r="E50" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F50" s="19"/>
       <c r="G50" s="17"/>
@@ -2357,7 +2349,7 @@
       <c r="C51" s="39"/>
       <c r="D51" s="48"/>
       <c r="E51" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F51" s="19"/>
       <c r="G51" s="17"/>
@@ -2373,7 +2365,7 @@
       <c r="C52" s="39"/>
       <c r="D52" s="49"/>
       <c r="E52" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F52" s="19"/>
       <c r="G52" s="17"/>
@@ -2386,16 +2378,16 @@
     </row>
     <row r="53" spans="2:13" ht="20" customHeight="1">
       <c r="B53" s="24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F53" s="7"/>
       <c r="G53" s="17"/>
@@ -2411,7 +2403,7 @@
       <c r="C54" s="39"/>
       <c r="D54" s="17"/>
       <c r="E54" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F54" s="7"/>
       <c r="G54" s="17"/>
@@ -2427,7 +2419,7 @@
       <c r="C55" s="22"/>
       <c r="D55" s="25"/>
       <c r="E55" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F55" s="7"/>
       <c r="G55" s="17"/>
@@ -2442,10 +2434,10 @@
       <c r="B56" s="40"/>
       <c r="C56" s="38"/>
       <c r="D56" s="25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F56" s="7"/>
       <c r="G56" s="17"/>
@@ -2461,7 +2453,7 @@
       <c r="C57" s="43"/>
       <c r="D57" s="22"/>
       <c r="E57" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F57" s="19"/>
       <c r="G57" s="17"/>
@@ -2476,10 +2468,10 @@
       <c r="B58" s="36"/>
       <c r="C58" s="24"/>
       <c r="D58" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F58" s="7"/>
       <c r="G58" s="17"/>
@@ -2495,7 +2487,7 @@
       <c r="C59" s="22"/>
       <c r="D59" s="22"/>
       <c r="E59" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F59" s="7"/>
       <c r="G59" s="17"/>
@@ -2511,7 +2503,7 @@
       <c r="C60" s="39"/>
       <c r="D60" s="22"/>
       <c r="E60" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F60" s="7"/>
       <c r="G60" s="17"/>
@@ -2527,7 +2519,7 @@
       <c r="C61" s="39"/>
       <c r="D61" s="22"/>
       <c r="E61" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="17"/>
@@ -2542,10 +2534,10 @@
       <c r="B62" s="36"/>
       <c r="C62" s="22"/>
       <c r="D62" s="25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E62" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F62" s="7"/>
       <c r="G62" s="17"/>
@@ -2561,7 +2553,7 @@
       <c r="C63" s="22"/>
       <c r="D63" s="22"/>
       <c r="E63" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F63" s="7"/>
       <c r="G63" s="17"/>
@@ -2577,7 +2569,7 @@
       <c r="C64" s="22"/>
       <c r="D64" s="22"/>
       <c r="E64" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F64" s="7"/>
       <c r="G64" s="17"/>
@@ -2592,10 +2584,10 @@
       <c r="B65" s="36"/>
       <c r="C65" s="22"/>
       <c r="D65" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="E65" s="17" t="s">
         <v>118</v>
-      </c>
-      <c r="E65" s="17" t="s">
-        <v>120</v>
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="17"/>
@@ -2611,7 +2603,7 @@
       <c r="C66" s="22"/>
       <c r="D66" s="22"/>
       <c r="E66" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F66" s="7"/>
       <c r="G66" s="17"/>
@@ -2627,7 +2619,7 @@
       <c r="C67" s="22"/>
       <c r="D67" s="22"/>
       <c r="E67" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F67" s="7"/>
       <c r="G67" s="17"/>
@@ -2643,7 +2635,7 @@
       <c r="C68" s="22"/>
       <c r="D68" s="22"/>
       <c r="E68" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="17"/>
@@ -2659,7 +2651,7 @@
       <c r="C69" s="22"/>
       <c r="D69" s="22"/>
       <c r="E69" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F69" s="7"/>
       <c r="G69" s="17"/>
@@ -2675,7 +2667,7 @@
       <c r="C70" s="22"/>
       <c r="D70" s="22"/>
       <c r="E70" s="17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F70" s="7"/>
       <c r="G70" s="17"/>
@@ -2686,18 +2678,18 @@
       <c r="L70" s="16"/>
       <c r="M70" s="10"/>
     </row>
-    <row r="71" spans="2:13" ht="20" customHeight="1">
+    <row r="71" spans="2:13" ht="18">
       <c r="B71" s="24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D71" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E71" s="17" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="E71" s="42" t="s">
+        <v>96</v>
       </c>
       <c r="F71" s="19"/>
       <c r="G71" s="17"/>
@@ -2708,14 +2700,12 @@
       <c r="L71" s="16"/>
       <c r="M71" s="10"/>
     </row>
-    <row r="72" spans="2:13" ht="18">
+    <row r="72" spans="2:13">
       <c r="B72" s="36"/>
-      <c r="C72" s="25"/>
-      <c r="D72" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="E72" s="42" t="s">
-        <v>98</v>
+      <c r="C72" s="38"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="7" t="s">
+        <v>108</v>
       </c>
       <c r="F72" s="19"/>
       <c r="G72" s="17"/>
@@ -2726,12 +2716,12 @@
       <c r="L72" s="16"/>
       <c r="M72" s="10"/>
     </row>
-    <row r="73" spans="2:13">
+    <row r="73" spans="2:13" ht="20" customHeight="1">
       <c r="B73" s="36"/>
       <c r="C73" s="38"/>
       <c r="D73" s="22"/>
       <c r="E73" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F73" s="19"/>
       <c r="G73" s="17"/>
@@ -2746,8 +2736,8 @@
       <c r="B74" s="36"/>
       <c r="C74" s="38"/>
       <c r="D74" s="22"/>
-      <c r="E74" s="7" t="s">
-        <v>111</v>
+      <c r="E74" s="42" t="s">
+        <v>110</v>
       </c>
       <c r="F74" s="19"/>
       <c r="G74" s="17"/>
@@ -2763,7 +2753,7 @@
       <c r="C75" s="38"/>
       <c r="D75" s="22"/>
       <c r="E75" s="42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F75" s="19"/>
       <c r="G75" s="17"/>
@@ -2774,12 +2764,12 @@
       <c r="L75" s="16"/>
       <c r="M75" s="10"/>
     </row>
-    <row r="76" spans="2:13" ht="20" customHeight="1">
+    <row r="76" spans="2:13" ht="18" customHeight="1">
       <c r="B76" s="36"/>
       <c r="C76" s="38"/>
       <c r="D76" s="22"/>
-      <c r="E76" s="42" t="s">
-        <v>113</v>
+      <c r="E76" s="23" t="s">
+        <v>93</v>
       </c>
       <c r="F76" s="19"/>
       <c r="G76" s="17"/>
@@ -2794,8 +2784,8 @@
       <c r="B77" s="36"/>
       <c r="C77" s="38"/>
       <c r="D77" s="22"/>
-      <c r="E77" s="23" t="s">
-        <v>95</v>
+      <c r="E77" s="17" t="s">
+        <v>102</v>
       </c>
       <c r="F77" s="19"/>
       <c r="G77" s="17"/>
@@ -2811,7 +2801,7 @@
       <c r="C78" s="38"/>
       <c r="D78" s="22"/>
       <c r="E78" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F78" s="19"/>
       <c r="G78" s="17"/>
@@ -2822,12 +2812,14 @@
       <c r="L78" s="16"/>
       <c r="M78" s="10"/>
     </row>
-    <row r="79" spans="2:13" ht="18" customHeight="1">
+    <row r="79" spans="2:13" ht="20" customHeight="1">
       <c r="B79" s="36"/>
-      <c r="C79" s="38"/>
-      <c r="D79" s="22"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="25" t="s">
+        <v>25</v>
+      </c>
       <c r="E79" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F79" s="19"/>
       <c r="G79" s="17"/>
@@ -2842,10 +2834,10 @@
       <c r="B80" s="36"/>
       <c r="C80" s="22"/>
       <c r="D80" s="25" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F80" s="19"/>
       <c r="G80" s="17"/>
@@ -2856,14 +2848,14 @@
       <c r="L80" s="16"/>
       <c r="M80" s="10"/>
     </row>
-    <row r="81" spans="2:13" ht="20" customHeight="1">
+    <row r="81" spans="2:13" ht="15" customHeight="1">
       <c r="B81" s="36"/>
       <c r="C81" s="22"/>
       <c r="D81" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E81" s="17" t="s">
-        <v>107</v>
+        <v>53</v>
+      </c>
+      <c r="E81" s="23" t="s">
+        <v>97</v>
       </c>
       <c r="F81" s="19"/>
       <c r="G81" s="17"/>
@@ -2877,11 +2869,9 @@
     <row r="82" spans="2:13" ht="15" customHeight="1">
       <c r="B82" s="36"/>
       <c r="C82" s="22"/>
-      <c r="D82" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="E82" s="23" t="s">
-        <v>99</v>
+      <c r="D82" s="22"/>
+      <c r="E82" s="17" t="s">
+        <v>98</v>
       </c>
       <c r="F82" s="19"/>
       <c r="G82" s="17"/>
@@ -2892,12 +2882,12 @@
       <c r="L82" s="16"/>
       <c r="M82" s="10"/>
     </row>
-    <row r="83" spans="2:13" ht="15" customHeight="1">
+    <row r="83" spans="2:13" ht="20" customHeight="1">
       <c r="B83" s="36"/>
       <c r="C83" s="22"/>
       <c r="D83" s="22"/>
       <c r="E83" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F83" s="19"/>
       <c r="G83" s="17"/>
@@ -2913,7 +2903,7 @@
       <c r="C84" s="22"/>
       <c r="D84" s="22"/>
       <c r="E84" s="17" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F84" s="19"/>
       <c r="G84" s="17"/>
@@ -2929,7 +2919,7 @@
       <c r="C85" s="22"/>
       <c r="D85" s="22"/>
       <c r="E85" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F85" s="19"/>
       <c r="G85" s="17"/>
@@ -2945,7 +2935,7 @@
       <c r="C86" s="22"/>
       <c r="D86" s="22"/>
       <c r="E86" s="17" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F86" s="19"/>
       <c r="G86" s="17"/>
@@ -2957,13 +2947,17 @@
       <c r="M86" s="10"/>
     </row>
     <row r="87" spans="2:13" ht="20" customHeight="1">
-      <c r="B87" s="36"/>
-      <c r="C87" s="22"/>
-      <c r="D87" s="22"/>
+      <c r="B87" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C87" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D87" s="25"/>
       <c r="E87" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="F87" s="19"/>
+        <v>57</v>
+      </c>
+      <c r="F87" s="7"/>
       <c r="G87" s="17"/>
       <c r="H87" s="17"/>
       <c r="I87" s="17"/>
@@ -2973,16 +2967,10 @@
       <c r="M87" s="10"/>
     </row>
     <row r="88" spans="2:13" ht="20" customHeight="1">
-      <c r="B88" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C88" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D88" s="25"/>
-      <c r="E88" s="17" t="s">
-        <v>59</v>
-      </c>
+      <c r="B88" s="36"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="17"/>
       <c r="F88" s="7"/>
       <c r="G88" s="17"/>
       <c r="H88" s="17"/>
@@ -3020,7 +3008,7 @@
       <c r="L90" s="16"/>
       <c r="M90" s="10"/>
     </row>
-    <row r="91" spans="2:13" ht="20" customHeight="1">
+    <row r="91" spans="2:13">
       <c r="B91" s="36"/>
       <c r="C91" s="22"/>
       <c r="D91" s="22"/>
@@ -3048,33 +3036,19 @@
       <c r="L92" s="16"/>
       <c r="M92" s="10"/>
     </row>
-    <row r="93" spans="2:13">
-      <c r="B93" s="36"/>
-      <c r="C93" s="22"/>
-      <c r="D93" s="22"/>
-      <c r="E93" s="17"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="17"/>
-      <c r="H93" s="17"/>
-      <c r="I93" s="17"/>
-      <c r="J93" s="15"/>
-      <c r="K93" s="18"/>
-      <c r="L93" s="16"/>
-      <c r="M93" s="10"/>
-    </row>
-    <row r="94" spans="2:13" ht="18" thickBot="1">
-      <c r="B94" s="37"/>
-      <c r="C94" s="29"/>
-      <c r="D94" s="29"/>
-      <c r="E94" s="30"/>
-      <c r="F94" s="31"/>
-      <c r="G94" s="30"/>
-      <c r="H94" s="30"/>
-      <c r="I94" s="30"/>
-      <c r="J94" s="32"/>
-      <c r="K94" s="33"/>
-      <c r="L94" s="34"/>
-      <c r="M94" s="35"/>
+    <row r="93" spans="2:13" ht="18" thickBot="1">
+      <c r="B93" s="37"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="30"/>
+      <c r="F93" s="31"/>
+      <c r="G93" s="30"/>
+      <c r="H93" s="30"/>
+      <c r="I93" s="30"/>
+      <c r="J93" s="32"/>
+      <c r="K93" s="33"/>
+      <c r="L93" s="34"/>
+      <c r="M93" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/src/Spring Webflux.xlsx
+++ b/src/Spring Webflux.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeongsuwon/projects/Java-Concurrency-Programming/src/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\Java-Concurrency-Programming\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F242191F-347E-DB4D-9514-4550890A13CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3C2957-BC56-4E33-A521-3580DE347080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20140" tabRatio="711" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="711" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Part1-자바 스레드 &amp; 비동기 프로그래밍" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="137">
   <si>
     <t>비고</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -243,14 +242,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>부록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Java Virtual Thread</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>취소 &amp; 완료처리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -267,10 +258,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아직 미정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Context Switch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -437,10 +424,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>비동기 어플리케이션 예제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스레드 풀 다중 작업 처리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -571,6 +554,26 @@
   </si>
   <si>
     <t>스레드 예외처리 - UncaughtExceptionHandler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인트로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의 커리큘럼 소개 / 개발환경 및 선수지식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5:10 경 이후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종 완성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -578,7 +581,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -675,7 +678,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -918,88 +921,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1026,13 +947,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1120,43 +1052,19 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1168,10 +1076,19 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1183,9 +1100,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1194,6 +1117,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1481,26 +1410,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M93"/>
+  <dimension ref="B1:L85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D78" sqref="D78"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="37" style="2" customWidth="1"/>
-    <col min="5" max="5" width="67.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="30.625" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="4" width="37" style="2" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="67.375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="19.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="60.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="19.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="18" thickBot="1"/>
-    <row r="2" spans="2:13" ht="29.25" customHeight="1">
+    <row r="1" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1523,158 +1452,195 @@
         <v>7</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="J2" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="K2" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="L2" s="51" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="20" customHeight="1">
-      <c r="B3" s="45" t="s">
+    <row r="3" spans="2:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="37"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="I3" s="40"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+    </row>
+    <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="9"/>
-    </row>
-    <row r="4" spans="2:13" ht="20" customHeight="1">
-      <c r="B4" s="46"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
+      <c r="D4" s="25"/>
       <c r="E4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="14"/>
+        <v>134</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="I4" s="15"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="16"/>
       <c r="L4" s="16"/>
-      <c r="M4" s="9"/>
-    </row>
-    <row r="5" spans="2:13" ht="20" customHeight="1">
+    </row>
+    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D5" s="26"/>
       <c r="E5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="14"/>
+      <c r="F5" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="I5" s="15"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="16"/>
       <c r="L5" s="16"/>
-      <c r="M5" s="9"/>
-    </row>
-    <row r="6" spans="2:13" ht="20" customHeight="1">
+    </row>
+    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="28"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
       <c r="E6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="14"/>
+      <c r="F6" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="16"/>
       <c r="L6" s="16"/>
-      <c r="M6" s="9"/>
-    </row>
-    <row r="7" spans="2:13" ht="20" customHeight="1">
+    </row>
+    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="28"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
       <c r="E7" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="14"/>
+        <v>55</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="I7" s="15"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="16"/>
       <c r="L7" s="16"/>
-      <c r="M7" s="9"/>
-    </row>
-    <row r="8" spans="2:13" ht="20" customHeight="1">
+    </row>
+    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="28"/>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
       <c r="E8" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="14"/>
+      <c r="F8" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="I8" s="15"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="16"/>
       <c r="L8" s="16"/>
-      <c r="M8" s="9"/>
-    </row>
-    <row r="9" spans="2:13" ht="20" customHeight="1">
+    </row>
+    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="28"/>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
       <c r="E9" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="14"/>
+        <v>56</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="16"/>
       <c r="L9" s="16"/>
-      <c r="M9" s="9"/>
-    </row>
-    <row r="10" spans="2:13" ht="20" customHeight="1">
+    </row>
+    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="28"/>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
       <c r="E10" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="14"/>
+        <v>57</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="I10" s="15"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="16"/>
       <c r="L10" s="16"/>
-      <c r="M10" s="9"/>
-    </row>
-    <row r="11" spans="2:13" ht="20" customHeight="1">
+    </row>
+    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="27" t="s">
         <v>40</v>
       </c>
@@ -1685,214 +1651,283 @@
         <v>28</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="14"/>
+        <v>59</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="I11" s="15"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="16"/>
       <c r="L11" s="16"/>
-      <c r="M11" s="9"/>
-    </row>
-    <row r="12" spans="2:13" ht="20" customHeight="1">
-      <c r="B12" s="40"/>
+    </row>
+    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="32"/>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
       <c r="E12" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="14"/>
+        <v>60</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="I12" s="15"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="16"/>
       <c r="L12" s="16"/>
-      <c r="M12" s="9"/>
-    </row>
-    <row r="13" spans="2:13" ht="20" customHeight="1">
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="28"/>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
       <c r="E13" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="9"/>
-    </row>
-    <row r="14" spans="2:13" ht="20" customHeight="1">
+        <v>62</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="J13" s="14"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="52" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="28"/>
       <c r="C14" s="22"/>
       <c r="D14" s="25" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="14"/>
+        <v>63</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="I14" s="15"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="16"/>
       <c r="L14" s="16"/>
-      <c r="M14" s="9"/>
-    </row>
-    <row r="15" spans="2:13" ht="20" customHeight="1">
+    </row>
+    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="28"/>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
       <c r="E15" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="14"/>
+        <v>64</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="I15" s="15"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="16"/>
       <c r="L15" s="16"/>
-      <c r="M15" s="9"/>
-    </row>
-    <row r="16" spans="2:13" ht="20" customHeight="1">
+    </row>
+    <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="28"/>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
       <c r="E16" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="14"/>
+      <c r="F16" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="I16" s="15"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="16"/>
       <c r="L16" s="16"/>
-      <c r="M16" s="9"/>
-    </row>
-    <row r="17" spans="2:13" ht="20" customHeight="1">
+    </row>
+    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="28"/>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
       <c r="E17" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="14"/>
+        <v>68</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="I17" s="15"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="16"/>
       <c r="L17" s="16"/>
-      <c r="M17" s="9"/>
-    </row>
-    <row r="18" spans="2:13" ht="20" customHeight="1">
+    </row>
+    <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="28"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
       <c r="E18" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="14"/>
+        <v>67</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="I18" s="15"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="16"/>
       <c r="L18" s="16"/>
-      <c r="M18" s="9"/>
-    </row>
-    <row r="19" spans="2:13" ht="20" customHeight="1">
+    </row>
+    <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="28"/>
       <c r="C19" s="22"/>
       <c r="D19" s="25" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="14"/>
+        <v>131</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="I19" s="15"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="16"/>
       <c r="L19" s="16"/>
-      <c r="M19" s="9"/>
-    </row>
-    <row r="20" spans="2:13" ht="20" customHeight="1">
+    </row>
+    <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="28"/>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
       <c r="E20" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="14"/>
+        <v>91</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="I20" s="15"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="16"/>
       <c r="L20" s="16"/>
-      <c r="M20" s="9"/>
-    </row>
-    <row r="21" spans="2:13" ht="20" customHeight="1">
+    </row>
+    <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="28"/>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
       <c r="E21" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="14"/>
+      <c r="F21" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="I21" s="15"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="16"/>
       <c r="L21" s="16"/>
-      <c r="M21" s="9"/>
-    </row>
-    <row r="22" spans="2:13" ht="20" customHeight="1">
+    </row>
+    <row r="22" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="28"/>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
       <c r="E22" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="14"/>
+      <c r="F22" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="I22" s="15"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="16"/>
       <c r="L22" s="16"/>
-      <c r="M22" s="9"/>
-    </row>
-    <row r="23" spans="2:13" ht="20" customHeight="1">
+    </row>
+    <row r="23" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="28"/>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
       <c r="E23" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="14"/>
+      <c r="F23" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="I23" s="15"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="16"/>
       <c r="L23" s="16"/>
-      <c r="M23" s="9"/>
-    </row>
-    <row r="24" spans="2:13" ht="20" customHeight="1">
+    </row>
+    <row r="24" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="24" t="s">
         <v>39</v>
       </c>
@@ -1903,134 +1938,142 @@
         <v>34</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" s="13"/>
+        <v>61</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="14"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="16"/>
       <c r="L24" s="16"/>
-      <c r="M24" s="9"/>
-    </row>
-    <row r="25" spans="2:13" ht="20" customHeight="1">
-      <c r="B25" s="36"/>
-      <c r="C25" s="38"/>
+    </row>
+    <row r="25" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="29"/>
+      <c r="C25" s="30"/>
       <c r="D25" s="22"/>
       <c r="E25" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F25" s="13"/>
+        <v>92</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="14"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="16"/>
       <c r="L25" s="16"/>
-      <c r="M25" s="9"/>
-    </row>
-    <row r="26" spans="2:13" ht="20" customHeight="1">
+    </row>
+    <row r="26" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="28"/>
-      <c r="C26" s="38"/>
+      <c r="C26" s="30"/>
       <c r="D26" s="22"/>
       <c r="E26" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F26" s="13"/>
+      <c r="F26" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="14"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="16"/>
       <c r="L26" s="16"/>
-      <c r="M26" s="9"/>
-    </row>
-    <row r="27" spans="2:13" ht="20" customHeight="1">
+    </row>
+    <row r="27" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="28"/>
-      <c r="C27" s="38"/>
+      <c r="C27" s="30"/>
       <c r="D27" s="22"/>
       <c r="E27" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="13"/>
+      <c r="F27" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="14"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="16"/>
       <c r="L27" s="16"/>
-      <c r="M27" s="9"/>
-    </row>
-    <row r="28" spans="2:13" ht="20" customHeight="1">
+    </row>
+    <row r="28" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="28"/>
       <c r="C28" s="22"/>
       <c r="D28" s="25" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E28" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="13"/>
+      <c r="F28" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="14"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="16"/>
       <c r="L28" s="16"/>
-      <c r="M28" s="9"/>
-    </row>
-    <row r="29" spans="2:13" ht="20" customHeight="1">
+    </row>
+    <row r="29" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="28"/>
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
       <c r="E29" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="13"/>
+      <c r="F29" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="14"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="16"/>
       <c r="L29" s="16"/>
-      <c r="M29" s="9"/>
-    </row>
-    <row r="30" spans="2:13" ht="20" customHeight="1">
+    </row>
+    <row r="30" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="28"/>
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
       <c r="E30" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F30" s="13"/>
+      <c r="F30" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="14"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="16"/>
       <c r="L30" s="16"/>
-      <c r="M30" s="9"/>
-    </row>
-    <row r="31" spans="2:13" ht="20" customHeight="1">
+    </row>
+    <row r="31" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="28"/>
       <c r="C31" s="22"/>
       <c r="D31" s="22"/>
       <c r="E31" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F31" s="13"/>
+      <c r="F31" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="14"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="16"/>
       <c r="L31" s="16"/>
-      <c r="M31" s="9"/>
-    </row>
-    <row r="32" spans="2:13" ht="20" customHeight="1">
+    </row>
+    <row r="32" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="24" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C32" s="25" t="s">
         <v>47</v>
@@ -2039,648 +2082,687 @@
         <v>38</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="F32" s="13"/>
+        <v>126</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="14"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="16"/>
       <c r="L32" s="16"/>
-      <c r="M32" s="9"/>
-    </row>
-    <row r="33" spans="2:13" ht="20" customHeight="1">
-      <c r="B33" s="36"/>
+    </row>
+    <row r="33" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="29"/>
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
       <c r="E33" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="F33" s="13"/>
+        <v>127</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="14"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="16"/>
       <c r="L33" s="16"/>
-      <c r="M33" s="9"/>
-    </row>
-    <row r="34" spans="2:13" ht="20" customHeight="1">
-      <c r="B34" s="36"/>
+    </row>
+    <row r="34" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="29"/>
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
       <c r="E34" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="F34" s="13"/>
+        <v>128</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="14"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="16"/>
       <c r="L34" s="16"/>
-      <c r="M34" s="9"/>
-    </row>
-    <row r="35" spans="2:13" ht="20" customHeight="1">
-      <c r="B35" s="36"/>
+    </row>
+    <row r="35" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="29"/>
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
       <c r="E35" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="F35" s="13"/>
+        <v>129</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="14"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="16"/>
       <c r="L35" s="16"/>
-      <c r="M35" s="9"/>
-    </row>
-    <row r="36" spans="2:13" ht="20" customHeight="1">
+    </row>
+    <row r="36" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="28"/>
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
       <c r="E36" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="F36" s="13"/>
+        <v>80</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="14"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="16"/>
       <c r="L36" s="16"/>
-      <c r="M36" s="9"/>
-    </row>
-    <row r="37" spans="2:13" ht="20" customHeight="1">
-      <c r="B37" s="41"/>
+    </row>
+    <row r="37" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="33"/>
       <c r="C37" s="22"/>
-      <c r="D37" s="39"/>
+      <c r="D37" s="31"/>
       <c r="E37" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="F37" s="13"/>
+        <v>71</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="14"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="16"/>
       <c r="L37" s="16"/>
-      <c r="M37" s="9"/>
-    </row>
-    <row r="38" spans="2:13" ht="20" customHeight="1">
-      <c r="B38" s="41"/>
+    </row>
+    <row r="38" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="33"/>
       <c r="C38" s="22"/>
-      <c r="D38" s="39"/>
+      <c r="D38" s="31"/>
       <c r="E38" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="F38" s="13"/>
+        <v>130</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="14"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="16"/>
       <c r="L38" s="16"/>
-      <c r="M38" s="9"/>
-    </row>
-    <row r="39" spans="2:13" ht="20" customHeight="1">
-      <c r="B39" s="41"/>
+    </row>
+    <row r="39" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="33"/>
       <c r="C39" s="22"/>
-      <c r="D39" s="39"/>
+      <c r="D39" s="31"/>
       <c r="E39" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G39" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="F39" s="13"/>
-      <c r="G39" s="14" t="s">
-        <v>75</v>
-      </c>
       <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="14"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="16"/>
       <c r="L39" s="16"/>
-      <c r="M39" s="9"/>
-    </row>
-    <row r="40" spans="2:13" ht="20" customHeight="1">
-      <c r="B40" s="41"/>
+    </row>
+    <row r="40" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="33"/>
       <c r="C40" s="22"/>
       <c r="D40" s="26" t="s">
         <v>42</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="F40" s="13"/>
+        <v>123</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="14"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="16"/>
       <c r="L40" s="16"/>
-      <c r="M40" s="9"/>
-    </row>
-    <row r="41" spans="2:13" ht="20" customHeight="1">
-      <c r="B41" s="41"/>
+    </row>
+    <row r="41" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="33"/>
       <c r="C41" s="22"/>
-      <c r="D41" s="39"/>
+      <c r="D41" s="31"/>
       <c r="E41" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="F41" s="13"/>
+        <v>119</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="44"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="16"/>
       <c r="L41" s="16"/>
-      <c r="M41" s="9"/>
-    </row>
-    <row r="42" spans="2:13" ht="20" customHeight="1">
-      <c r="B42" s="41"/>
+    </row>
+    <row r="42" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="33"/>
       <c r="C42" s="22"/>
-      <c r="D42" s="39"/>
+      <c r="D42" s="31"/>
       <c r="E42" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="F42" s="13"/>
+        <v>124</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="44"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="16"/>
       <c r="L42" s="16"/>
-      <c r="M42" s="9"/>
-    </row>
-    <row r="43" spans="2:13" ht="20" customHeight="1">
-      <c r="B43" s="41"/>
+    </row>
+    <row r="43" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="33"/>
       <c r="C43" s="22"/>
-      <c r="D43" s="39"/>
+      <c r="D43" s="31"/>
       <c r="E43" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="F43" s="13"/>
+        <v>125</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="G43" s="14"/>
       <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="44"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="16"/>
       <c r="L43" s="16"/>
-      <c r="M43" s="9"/>
-    </row>
-    <row r="44" spans="2:13" ht="20" customHeight="1">
-      <c r="B44" s="41"/>
+    </row>
+    <row r="44" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="33"/>
       <c r="C44" s="22"/>
-      <c r="D44" s="39"/>
+      <c r="D44" s="31"/>
       <c r="E44" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="F44" s="13"/>
+        <v>120</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="G44" s="14"/>
       <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="44"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="16"/>
       <c r="L44" s="16"/>
-      <c r="M44" s="9"/>
-    </row>
-    <row r="45" spans="2:13" ht="20" customHeight="1">
+    </row>
+    <row r="45" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="28"/>
       <c r="C45" s="22"/>
       <c r="D45" s="22"/>
       <c r="E45" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="F45" s="7"/>
+        <v>121</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="G45" s="17"/>
       <c r="H45" s="14"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="18"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="16"/>
       <c r="L45" s="16"/>
-      <c r="M45" s="10"/>
-    </row>
-    <row r="46" spans="2:13" ht="20" customHeight="1">
+    </row>
+    <row r="46" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="28"/>
       <c r="C46" s="22"/>
       <c r="D46" s="22"/>
       <c r="E46" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="F46" s="7"/>
+        <v>122</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="G46" s="17"/>
       <c r="H46" s="14"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="18"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="16"/>
       <c r="L46" s="16"/>
-      <c r="M46" s="10"/>
-    </row>
-    <row r="47" spans="2:13" ht="20" customHeight="1">
+    </row>
+    <row r="47" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="28"/>
       <c r="C47" s="22"/>
       <c r="D47" s="22"/>
       <c r="E47" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F47" s="7"/>
+      <c r="F47" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="G47" s="17"/>
       <c r="H47" s="14"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="18"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="16"/>
       <c r="L47" s="16"/>
-      <c r="M47" s="10"/>
-    </row>
-    <row r="48" spans="2:13" ht="20" customHeight="1">
+    </row>
+    <row r="48" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="28"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="47" t="s">
+      <c r="C48" s="31"/>
+      <c r="D48" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="E48" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E48" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="F48" s="19"/>
+      <c r="F48" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="G48" s="17"/>
       <c r="H48" s="14"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="18"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="16"/>
       <c r="L48" s="16"/>
-      <c r="M48" s="10"/>
-    </row>
-    <row r="49" spans="2:13" ht="20" customHeight="1">
+    </row>
+    <row r="49" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="28"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="48"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="43"/>
       <c r="E49" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="F49" s="19"/>
+        <v>77</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="G49" s="17"/>
       <c r="H49" s="14"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="18"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="16"/>
       <c r="L49" s="16"/>
-      <c r="M49" s="10"/>
-    </row>
-    <row r="50" spans="2:13" ht="20" customHeight="1">
+    </row>
+    <row r="50" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="28"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="48"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="43"/>
       <c r="E50" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="F50" s="19"/>
+        <v>78</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="G50" s="17"/>
       <c r="H50" s="14"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="15"/>
-      <c r="K50" s="18"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="16"/>
       <c r="L50" s="16"/>
-      <c r="M50" s="10"/>
-    </row>
-    <row r="51" spans="2:13" ht="20" customHeight="1">
+    </row>
+    <row r="51" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="28"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="48"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="43"/>
       <c r="E51" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="F51" s="19"/>
+        <v>74</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="G51" s="17"/>
       <c r="H51" s="14"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="15"/>
-      <c r="K51" s="18"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="16"/>
       <c r="L51" s="16"/>
-      <c r="M51" s="10"/>
-    </row>
-    <row r="52" spans="2:13" ht="20" customHeight="1">
+    </row>
+    <row r="52" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="28"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="49"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="44"/>
       <c r="E52" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="F52" s="19"/>
+        <v>79</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="G52" s="17"/>
       <c r="H52" s="14"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="15"/>
-      <c r="K52" s="18"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="16"/>
       <c r="L52" s="16"/>
-      <c r="M52" s="10"/>
-    </row>
-    <row r="53" spans="2:13" ht="20" customHeight="1">
+    </row>
+    <row r="53" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="24" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D53" s="26" t="s">
         <v>48</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="F53" s="7"/>
+        <v>82</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="G53" s="17"/>
       <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="18"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="16"/>
       <c r="L53" s="16"/>
-      <c r="M53" s="10"/>
-    </row>
-    <row r="54" spans="2:13" ht="20" customHeight="1">
-      <c r="B54" s="36"/>
-      <c r="C54" s="39"/>
+    </row>
+    <row r="54" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="29"/>
+      <c r="C54" s="31"/>
       <c r="D54" s="17"/>
       <c r="E54" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="F54" s="7"/>
+        <v>108</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="G54" s="17"/>
       <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="18"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="16"/>
       <c r="L54" s="16"/>
-      <c r="M54" s="10"/>
-    </row>
-    <row r="55" spans="2:13" ht="20" customHeight="1">
-      <c r="B55" s="36"/>
+    </row>
+    <row r="55" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="29"/>
       <c r="C55" s="22"/>
       <c r="D55" s="25"/>
       <c r="E55" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="F55" s="7"/>
+        <v>52</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="G55" s="17"/>
       <c r="H55" s="17"/>
-      <c r="I55" s="17"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="18"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="16"/>
       <c r="L55" s="16"/>
-      <c r="M55" s="10"/>
-    </row>
-    <row r="56" spans="2:13" ht="20" customHeight="1">
-      <c r="B56" s="40"/>
-      <c r="C56" s="38"/>
+    </row>
+    <row r="56" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="32"/>
+      <c r="C56" s="30"/>
       <c r="D56" s="25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F56" s="7"/>
+        <v>84</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="G56" s="17"/>
       <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="15"/>
-      <c r="K56" s="18"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="16"/>
       <c r="L56" s="16"/>
-      <c r="M56" s="10"/>
-    </row>
-    <row r="57" spans="2:13" ht="20" customHeight="1">
-      <c r="B57" s="40"/>
-      <c r="C57" s="43"/>
+    </row>
+    <row r="57" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="32"/>
+      <c r="C57" s="35"/>
       <c r="D57" s="22"/>
       <c r="E57" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F57" s="19"/>
+        <v>85</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="G57" s="17"/>
       <c r="H57" s="17"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="18"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="16"/>
       <c r="L57" s="16"/>
-      <c r="M57" s="10"/>
-    </row>
-    <row r="58" spans="2:13" ht="20" customHeight="1">
-      <c r="B58" s="36"/>
+    </row>
+    <row r="58" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="29"/>
       <c r="C58" s="24"/>
       <c r="D58" s="17" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F58" s="7"/>
+        <v>87</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="G58" s="17"/>
       <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="18"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="16"/>
       <c r="L58" s="16"/>
-      <c r="M58" s="10"/>
-    </row>
-    <row r="59" spans="2:13" ht="20" customHeight="1">
-      <c r="B59" s="36"/>
+    </row>
+    <row r="59" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="29"/>
       <c r="C59" s="22"/>
       <c r="D59" s="22"/>
       <c r="E59" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="F59" s="7"/>
+        <v>88</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="G59" s="17"/>
       <c r="H59" s="17"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="15"/>
-      <c r="K59" s="18"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="16"/>
       <c r="L59" s="16"/>
-      <c r="M59" s="10"/>
-    </row>
-    <row r="60" spans="2:13" ht="20" customHeight="1">
-      <c r="B60" s="36"/>
-      <c r="C60" s="39"/>
+    </row>
+    <row r="60" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="29"/>
+      <c r="C60" s="31"/>
       <c r="D60" s="22"/>
       <c r="E60" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F60" s="7"/>
+        <v>97</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="G60" s="17"/>
       <c r="H60" s="17"/>
-      <c r="I60" s="17"/>
-      <c r="J60" s="15"/>
-      <c r="K60" s="18"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="18"/>
+      <c r="K60" s="16"/>
       <c r="L60" s="16"/>
-      <c r="M60" s="10"/>
-    </row>
-    <row r="61" spans="2:13" ht="20" customHeight="1">
-      <c r="B61" s="36"/>
-      <c r="C61" s="39"/>
+    </row>
+    <row r="61" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="29"/>
+      <c r="C61" s="31"/>
       <c r="D61" s="22"/>
       <c r="E61" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="F61" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="G61" s="17"/>
       <c r="H61" s="17"/>
-      <c r="I61" s="17"/>
-      <c r="J61" s="15"/>
-      <c r="K61" s="18"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="18"/>
+      <c r="K61" s="16"/>
       <c r="L61" s="16"/>
-      <c r="M61" s="10"/>
-    </row>
-    <row r="62" spans="2:13" ht="20" customHeight="1">
-      <c r="B62" s="36"/>
+    </row>
+    <row r="62" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="29"/>
       <c r="C62" s="22"/>
       <c r="D62" s="25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E62" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="F62" s="7"/>
+        <v>109</v>
+      </c>
+      <c r="F62" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="G62" s="17"/>
       <c r="H62" s="17"/>
-      <c r="I62" s="17"/>
-      <c r="J62" s="15"/>
-      <c r="K62" s="18"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="18"/>
+      <c r="K62" s="16"/>
       <c r="L62" s="16"/>
-      <c r="M62" s="10"/>
-    </row>
-    <row r="63" spans="2:13" ht="20" customHeight="1">
-      <c r="B63" s="36"/>
+    </row>
+    <row r="63" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="29"/>
       <c r="C63" s="22"/>
       <c r="D63" s="22"/>
       <c r="E63" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="F63" s="7"/>
+        <v>110</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="G63" s="17"/>
       <c r="H63" s="17"/>
-      <c r="I63" s="17"/>
-      <c r="J63" s="15"/>
-      <c r="K63" s="18"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="18"/>
+      <c r="K63" s="16"/>
       <c r="L63" s="16"/>
-      <c r="M63" s="10"/>
-    </row>
-    <row r="64" spans="2:13" ht="20" customHeight="1">
-      <c r="B64" s="36"/>
+    </row>
+    <row r="64" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="29"/>
       <c r="C64" s="22"/>
       <c r="D64" s="22"/>
       <c r="E64" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="F64" s="7"/>
+        <v>111</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="G64" s="17"/>
       <c r="H64" s="17"/>
-      <c r="I64" s="17"/>
-      <c r="J64" s="15"/>
-      <c r="K64" s="18"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="18"/>
+      <c r="K64" s="16"/>
       <c r="L64" s="16"/>
-      <c r="M64" s="10"/>
-    </row>
-    <row r="65" spans="2:13" ht="20" customHeight="1">
-      <c r="B65" s="36"/>
+    </row>
+    <row r="65" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="29"/>
       <c r="C65" s="22"/>
       <c r="D65" s="25" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="F65" s="7"/>
+        <v>114</v>
+      </c>
+      <c r="F65" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="G65" s="17"/>
       <c r="H65" s="17"/>
-      <c r="I65" s="17"/>
-      <c r="J65" s="15"/>
-      <c r="K65" s="18"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="18"/>
+      <c r="K65" s="16"/>
       <c r="L65" s="16"/>
-      <c r="M65" s="10"/>
-    </row>
-    <row r="66" spans="2:13" ht="20" customHeight="1">
-      <c r="B66" s="36"/>
+    </row>
+    <row r="66" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="29"/>
       <c r="C66" s="22"/>
       <c r="D66" s="22"/>
       <c r="E66" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="F66" s="7"/>
+        <v>115</v>
+      </c>
+      <c r="F66" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="G66" s="17"/>
       <c r="H66" s="17"/>
-      <c r="I66" s="17"/>
-      <c r="J66" s="15"/>
-      <c r="K66" s="18"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="18"/>
+      <c r="K66" s="16"/>
       <c r="L66" s="16"/>
-      <c r="M66" s="10"/>
-    </row>
-    <row r="67" spans="2:13" ht="20" customHeight="1">
-      <c r="B67" s="36"/>
+    </row>
+    <row r="67" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="29"/>
       <c r="C67" s="22"/>
       <c r="D67" s="22"/>
       <c r="E67" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="F67" s="7"/>
+        <v>116</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="G67" s="17"/>
       <c r="H67" s="17"/>
-      <c r="I67" s="17"/>
-      <c r="J67" s="15"/>
-      <c r="K67" s="18"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="18"/>
+      <c r="K67" s="16"/>
       <c r="L67" s="16"/>
-      <c r="M67" s="10"/>
-    </row>
-    <row r="68" spans="2:13" ht="20" customHeight="1">
-      <c r="B68" s="36"/>
+    </row>
+    <row r="68" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="29"/>
       <c r="C68" s="22"/>
       <c r="D68" s="22"/>
       <c r="E68" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="F68" s="7"/>
+        <v>117</v>
+      </c>
+      <c r="F68" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="G68" s="17"/>
       <c r="H68" s="17"/>
-      <c r="I68" s="17"/>
-      <c r="J68" s="15"/>
-      <c r="K68" s="18"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="18"/>
+      <c r="K68" s="16"/>
       <c r="L68" s="16"/>
-      <c r="M68" s="10"/>
-    </row>
-    <row r="69" spans="2:13" ht="20" customHeight="1">
-      <c r="B69" s="36"/>
+    </row>
+    <row r="69" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="29"/>
       <c r="C69" s="22"/>
       <c r="D69" s="22"/>
       <c r="E69" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="F69" s="7"/>
+        <v>118</v>
+      </c>
+      <c r="F69" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="G69" s="17"/>
       <c r="H69" s="17"/>
-      <c r="I69" s="17"/>
-      <c r="J69" s="15"/>
-      <c r="K69" s="18"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="18"/>
+      <c r="K69" s="16"/>
       <c r="L69" s="16"/>
-      <c r="M69" s="10"/>
-    </row>
-    <row r="70" spans="2:13" ht="20" customHeight="1">
-      <c r="B70" s="36"/>
+    </row>
+    <row r="70" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="29"/>
       <c r="C70" s="22"/>
       <c r="D70" s="22"/>
       <c r="E70" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="F70" s="7"/>
+        <v>113</v>
+      </c>
+      <c r="F70" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="G70" s="17"/>
       <c r="H70" s="17"/>
-      <c r="I70" s="17"/>
-      <c r="J70" s="15"/>
-      <c r="K70" s="18"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="18"/>
+      <c r="K70" s="16"/>
       <c r="L70" s="16"/>
-      <c r="M70" s="10"/>
-    </row>
-    <row r="71" spans="2:13" ht="18">
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B71" s="24" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C71" s="25" t="s">
         <v>50</v>
@@ -2688,371 +2770,265 @@
       <c r="D71" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="E71" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="F71" s="19"/>
+      <c r="E71" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="F71" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="G71" s="17"/>
       <c r="H71" s="17"/>
-      <c r="I71" s="17"/>
-      <c r="J71" s="15"/>
-      <c r="K71" s="18"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="18"/>
+      <c r="K71" s="16"/>
       <c r="L71" s="16"/>
-      <c r="M71" s="10"/>
-    </row>
-    <row r="72" spans="2:13">
-      <c r="B72" s="36"/>
-      <c r="C72" s="38"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B72" s="29"/>
+      <c r="C72" s="30"/>
       <c r="D72" s="22"/>
       <c r="E72" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F72" s="19"/>
+        <v>104</v>
+      </c>
+      <c r="F72" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="G72" s="17"/>
       <c r="H72" s="17"/>
-      <c r="I72" s="17"/>
-      <c r="J72" s="15"/>
-      <c r="K72" s="18"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="18"/>
+      <c r="K72" s="16"/>
       <c r="L72" s="16"/>
-      <c r="M72" s="10"/>
-    </row>
-    <row r="73" spans="2:13" ht="20" customHeight="1">
-      <c r="B73" s="36"/>
-      <c r="C73" s="38"/>
+    </row>
+    <row r="73" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="29"/>
+      <c r="C73" s="30"/>
       <c r="D73" s="22"/>
       <c r="E73" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F73" s="19"/>
+        <v>105</v>
+      </c>
+      <c r="F73" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="G73" s="17"/>
       <c r="H73" s="17"/>
-      <c r="I73" s="17"/>
-      <c r="J73" s="15"/>
-      <c r="K73" s="18"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="18"/>
+      <c r="K73" s="16"/>
       <c r="L73" s="16"/>
-      <c r="M73" s="10"/>
-    </row>
-    <row r="74" spans="2:13" ht="20" customHeight="1">
-      <c r="B74" s="36"/>
-      <c r="C74" s="38"/>
+    </row>
+    <row r="74" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="29"/>
+      <c r="C74" s="30"/>
       <c r="D74" s="22"/>
-      <c r="E74" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="F74" s="19"/>
+      <c r="E74" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="F74" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="G74" s="17"/>
       <c r="H74" s="17"/>
-      <c r="I74" s="17"/>
-      <c r="J74" s="15"/>
-      <c r="K74" s="18"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="18"/>
+      <c r="K74" s="16"/>
       <c r="L74" s="16"/>
-      <c r="M74" s="10"/>
-    </row>
-    <row r="75" spans="2:13" ht="20" customHeight="1">
-      <c r="B75" s="36"/>
-      <c r="C75" s="38"/>
+    </row>
+    <row r="75" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="29"/>
+      <c r="C75" s="30"/>
       <c r="D75" s="22"/>
-      <c r="E75" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="F75" s="19"/>
+      <c r="E75" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="F75" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="G75" s="17"/>
       <c r="H75" s="17"/>
-      <c r="I75" s="17"/>
-      <c r="J75" s="15"/>
-      <c r="K75" s="18"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="18"/>
+      <c r="K75" s="16"/>
       <c r="L75" s="16"/>
-      <c r="M75" s="10"/>
-    </row>
-    <row r="76" spans="2:13" ht="18" customHeight="1">
-      <c r="B76" s="36"/>
-      <c r="C76" s="38"/>
+    </row>
+    <row r="76" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="29"/>
+      <c r="C76" s="30"/>
       <c r="D76" s="22"/>
       <c r="E76" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="F76" s="19"/>
+        <v>90</v>
+      </c>
+      <c r="F76" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="G76" s="17"/>
       <c r="H76" s="17"/>
-      <c r="I76" s="17"/>
-      <c r="J76" s="15"/>
-      <c r="K76" s="18"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="18"/>
+      <c r="K76" s="16"/>
       <c r="L76" s="16"/>
-      <c r="M76" s="10"/>
-    </row>
-    <row r="77" spans="2:13" ht="18" customHeight="1">
-      <c r="B77" s="36"/>
-      <c r="C77" s="38"/>
+    </row>
+    <row r="77" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="29"/>
+      <c r="C77" s="30"/>
       <c r="D77" s="22"/>
       <c r="E77" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="F77" s="19"/>
+        <v>98</v>
+      </c>
+      <c r="F77" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="G77" s="17"/>
       <c r="H77" s="17"/>
-      <c r="I77" s="17"/>
-      <c r="J77" s="15"/>
-      <c r="K77" s="18"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="18"/>
+      <c r="K77" s="16"/>
       <c r="L77" s="16"/>
-      <c r="M77" s="10"/>
-    </row>
-    <row r="78" spans="2:13" ht="18" customHeight="1">
-      <c r="B78" s="36"/>
-      <c r="C78" s="38"/>
+    </row>
+    <row r="78" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="29"/>
+      <c r="C78" s="30"/>
       <c r="D78" s="22"/>
       <c r="E78" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="F78" s="19"/>
+        <v>99</v>
+      </c>
+      <c r="F78" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="G78" s="17"/>
       <c r="H78" s="17"/>
-      <c r="I78" s="17"/>
-      <c r="J78" s="15"/>
-      <c r="K78" s="18"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="18"/>
+      <c r="K78" s="16"/>
       <c r="L78" s="16"/>
-      <c r="M78" s="10"/>
-    </row>
-    <row r="79" spans="2:13" ht="20" customHeight="1">
-      <c r="B79" s="36"/>
+    </row>
+    <row r="79" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="29"/>
       <c r="C79" s="22"/>
       <c r="D79" s="25" t="s">
         <v>25</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="F79" s="19"/>
+        <v>100</v>
+      </c>
+      <c r="F79" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="G79" s="17"/>
       <c r="H79" s="17"/>
-      <c r="I79" s="17"/>
-      <c r="J79" s="15"/>
-      <c r="K79" s="18"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="18"/>
+      <c r="K79" s="16"/>
       <c r="L79" s="16"/>
-      <c r="M79" s="10"/>
-    </row>
-    <row r="80" spans="2:13" ht="20" customHeight="1">
-      <c r="B80" s="36"/>
+    </row>
+    <row r="80" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="29"/>
       <c r="C80" s="22"/>
       <c r="D80" s="25" t="s">
         <v>39</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="F80" s="19"/>
+        <v>101</v>
+      </c>
+      <c r="F80" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="G80" s="17"/>
       <c r="H80" s="17"/>
-      <c r="I80" s="17"/>
-      <c r="J80" s="15"/>
-      <c r="K80" s="18"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="18"/>
+      <c r="K80" s="16"/>
       <c r="L80" s="16"/>
-      <c r="M80" s="10"/>
-    </row>
-    <row r="81" spans="2:13" ht="15" customHeight="1">
-      <c r="B81" s="36"/>
+    </row>
+    <row r="81" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="29"/>
       <c r="C81" s="22"/>
       <c r="D81" s="25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E81" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="F81" s="19"/>
+        <v>94</v>
+      </c>
+      <c r="F81" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="G81" s="17"/>
       <c r="H81" s="17"/>
-      <c r="I81" s="17"/>
-      <c r="J81" s="15"/>
-      <c r="K81" s="18"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="18"/>
+      <c r="K81" s="16"/>
       <c r="L81" s="16"/>
-      <c r="M81" s="10"/>
-    </row>
-    <row r="82" spans="2:13" ht="15" customHeight="1">
-      <c r="B82" s="36"/>
+    </row>
+    <row r="82" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="29"/>
       <c r="C82" s="22"/>
       <c r="D82" s="22"/>
       <c r="E82" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="F82" s="19"/>
+        <v>95</v>
+      </c>
+      <c r="F82" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="G82" s="17"/>
       <c r="H82" s="17"/>
-      <c r="I82" s="17"/>
-      <c r="J82" s="15"/>
-      <c r="K82" s="18"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="18"/>
+      <c r="K82" s="16"/>
       <c r="L82" s="16"/>
-      <c r="M82" s="10"/>
-    </row>
-    <row r="83" spans="2:13" ht="20" customHeight="1">
-      <c r="B83" s="36"/>
+    </row>
+    <row r="83" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="29"/>
       <c r="C83" s="22"/>
       <c r="D83" s="22"/>
       <c r="E83" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="F83" s="19"/>
+        <v>96</v>
+      </c>
+      <c r="F83" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="G83" s="17"/>
       <c r="H83" s="17"/>
-      <c r="I83" s="17"/>
-      <c r="J83" s="15"/>
-      <c r="K83" s="18"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="18"/>
+      <c r="K83" s="16"/>
       <c r="L83" s="16"/>
-      <c r="M83" s="10"/>
-    </row>
-    <row r="84" spans="2:13" ht="20" customHeight="1">
-      <c r="B84" s="36"/>
+    </row>
+    <row r="84" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="29"/>
       <c r="C84" s="22"/>
       <c r="D84" s="22"/>
       <c r="E84" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="F84" s="19"/>
+        <v>102</v>
+      </c>
+      <c r="F84" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="G84" s="17"/>
       <c r="H84" s="17"/>
-      <c r="I84" s="17"/>
-      <c r="J84" s="15"/>
-      <c r="K84" s="18"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="18"/>
+      <c r="K84" s="16"/>
       <c r="L84" s="16"/>
-      <c r="M84" s="10"/>
-    </row>
-    <row r="85" spans="2:13" ht="20" customHeight="1">
-      <c r="B85" s="36"/>
+    </row>
+    <row r="85" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="29"/>
       <c r="C85" s="22"/>
       <c r="D85" s="22"/>
       <c r="E85" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="F85" s="19"/>
+        <v>103</v>
+      </c>
+      <c r="F85" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="G85" s="17"/>
       <c r="H85" s="17"/>
-      <c r="I85" s="17"/>
-      <c r="J85" s="15"/>
-      <c r="K85" s="18"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="18"/>
+      <c r="K85" s="16"/>
       <c r="L85" s="16"/>
-      <c r="M85" s="10"/>
-    </row>
-    <row r="86" spans="2:13" ht="20" customHeight="1">
-      <c r="B86" s="36"/>
-      <c r="C86" s="22"/>
-      <c r="D86" s="22"/>
-      <c r="E86" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="F86" s="19"/>
-      <c r="G86" s="17"/>
-      <c r="H86" s="17"/>
-      <c r="I86" s="17"/>
-      <c r="J86" s="15"/>
-      <c r="K86" s="18"/>
-      <c r="L86" s="16"/>
-      <c r="M86" s="10"/>
-    </row>
-    <row r="87" spans="2:13" ht="20" customHeight="1">
-      <c r="B87" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C87" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D87" s="25"/>
-      <c r="E87" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="F87" s="7"/>
-      <c r="G87" s="17"/>
-      <c r="H87" s="17"/>
-      <c r="I87" s="17"/>
-      <c r="J87" s="15"/>
-      <c r="K87" s="18"/>
-      <c r="L87" s="16"/>
-      <c r="M87" s="10"/>
-    </row>
-    <row r="88" spans="2:13" ht="20" customHeight="1">
-      <c r="B88" s="36"/>
-      <c r="C88" s="22"/>
-      <c r="D88" s="22"/>
-      <c r="E88" s="17"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="17"/>
-      <c r="H88" s="17"/>
-      <c r="I88" s="17"/>
-      <c r="J88" s="15"/>
-      <c r="K88" s="18"/>
-      <c r="L88" s="16"/>
-      <c r="M88" s="10"/>
-    </row>
-    <row r="89" spans="2:13" ht="20" customHeight="1">
-      <c r="B89" s="36"/>
-      <c r="C89" s="22"/>
-      <c r="D89" s="22"/>
-      <c r="E89" s="17"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="17"/>
-      <c r="H89" s="17"/>
-      <c r="I89" s="17"/>
-      <c r="J89" s="15"/>
-      <c r="K89" s="18"/>
-      <c r="L89" s="16"/>
-      <c r="M89" s="10"/>
-    </row>
-    <row r="90" spans="2:13" ht="20" customHeight="1">
-      <c r="B90" s="36"/>
-      <c r="C90" s="22"/>
-      <c r="D90" s="22"/>
-      <c r="E90" s="17"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="17"/>
-      <c r="H90" s="17"/>
-      <c r="I90" s="17"/>
-      <c r="J90" s="15"/>
-      <c r="K90" s="18"/>
-      <c r="L90" s="16"/>
-      <c r="M90" s="10"/>
-    </row>
-    <row r="91" spans="2:13">
-      <c r="B91" s="36"/>
-      <c r="C91" s="22"/>
-      <c r="D91" s="22"/>
-      <c r="E91" s="17"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="17"/>
-      <c r="H91" s="17"/>
-      <c r="I91" s="17"/>
-      <c r="J91" s="15"/>
-      <c r="K91" s="18"/>
-      <c r="L91" s="16"/>
-      <c r="M91" s="10"/>
-    </row>
-    <row r="92" spans="2:13">
-      <c r="B92" s="36"/>
-      <c r="C92" s="22"/>
-      <c r="D92" s="22"/>
-      <c r="E92" s="17"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="17"/>
-      <c r="H92" s="17"/>
-      <c r="I92" s="17"/>
-      <c r="J92" s="15"/>
-      <c r="K92" s="18"/>
-      <c r="L92" s="16"/>
-      <c r="M92" s="10"/>
-    </row>
-    <row r="93" spans="2:13" ht="18" thickBot="1">
-      <c r="B93" s="37"/>
-      <c r="C93" s="29"/>
-      <c r="D93" s="29"/>
-      <c r="E93" s="30"/>
-      <c r="F93" s="31"/>
-      <c r="G93" s="30"/>
-      <c r="H93" s="30"/>
-      <c r="I93" s="30"/>
-      <c r="J93" s="32"/>
-      <c r="K93" s="33"/>
-      <c r="L93" s="34"/>
-      <c r="M93" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B3:B4"/>
+  <mergeCells count="1">
     <mergeCell ref="D48:D52"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3070,16 +3046,16 @@
       <selection pane="bottomLeft" activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.625" style="1" customWidth="1"/>
     <col min="2" max="3" width="37" style="2" customWidth="1"/>
     <col min="4" max="4" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="19.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="60.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="19.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="60.625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="29.25" customHeight="1">
+    <row r="1" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -3114,11 +3090,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1">
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="48" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="17" t="s">
@@ -3133,9 +3109,9 @@
       <c r="J2" s="16"/>
       <c r="K2" s="9"/>
     </row>
-    <row r="3" spans="1:11" ht="20" customHeight="1">
-      <c r="A3" s="46"/>
-      <c r="B3" s="53"/>
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="47"/>
+      <c r="B3" s="50"/>
       <c r="C3" s="17" t="s">
         <v>15</v>
       </c>
@@ -3148,7 +3124,7 @@
       <c r="J3" s="16"/>
       <c r="K3" s="9"/>
     </row>
-    <row r="4" spans="1:11" ht="20" customHeight="1">
+    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="45" t="s">
         <v>11</v>
       </c>
@@ -3165,9 +3141,9 @@
       <c r="J4" s="16"/>
       <c r="K4" s="10"/>
     </row>
-    <row r="5" spans="1:11" ht="20" customHeight="1">
-      <c r="A5" s="50"/>
-      <c r="B5" s="51" t="s">
+    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="46"/>
+      <c r="B5" s="48" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="17"/>
@@ -3180,9 +3156,9 @@
       <c r="J5" s="16"/>
       <c r="K5" s="10"/>
     </row>
-    <row r="6" spans="1:11" ht="20" customHeight="1">
-      <c r="A6" s="50"/>
-      <c r="B6" s="52"/>
+    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="46"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="17"/>
       <c r="D6" s="7"/>
       <c r="E6" s="17"/>
@@ -3193,9 +3169,9 @@
       <c r="J6" s="16"/>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" spans="1:11" ht="20" customHeight="1">
-      <c r="A7" s="50"/>
-      <c r="B7" s="52"/>
+    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="46"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="17"/>
       <c r="D7" s="19"/>
       <c r="E7" s="17"/>
@@ -3206,9 +3182,9 @@
       <c r="J7" s="16"/>
       <c r="K7" s="10"/>
     </row>
-    <row r="8" spans="1:11" ht="20" customHeight="1">
-      <c r="A8" s="50"/>
-      <c r="B8" s="52"/>
+    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="46"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="17"/>
       <c r="D8" s="19"/>
       <c r="E8" s="17"/>
@@ -3219,9 +3195,9 @@
       <c r="J8" s="16"/>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="1:11" ht="20" customHeight="1">
-      <c r="A9" s="50"/>
-      <c r="B9" s="53"/>
+    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="46"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="17"/>
       <c r="D9" s="7"/>
       <c r="E9" s="17"/>
@@ -3232,9 +3208,9 @@
       <c r="J9" s="18"/>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" spans="1:11" ht="20" customHeight="1">
-      <c r="A10" s="50"/>
-      <c r="B10" s="51" t="s">
+    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="46"/>
+      <c r="B10" s="48" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="17"/>
@@ -3247,9 +3223,9 @@
       <c r="J10" s="16"/>
       <c r="K10" s="8"/>
     </row>
-    <row r="11" spans="1:11" ht="20" customHeight="1">
-      <c r="A11" s="50"/>
-      <c r="B11" s="52"/>
+    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="46"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="17"/>
       <c r="D11" s="7"/>
       <c r="E11" s="17"/>
@@ -3260,9 +3236,9 @@
       <c r="J11" s="16"/>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" spans="1:11" ht="20" customHeight="1">
-      <c r="A12" s="50"/>
-      <c r="B12" s="52"/>
+    <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="46"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="17"/>
       <c r="D12" s="7"/>
       <c r="E12" s="17"/>
@@ -3273,9 +3249,9 @@
       <c r="J12" s="16"/>
       <c r="K12" s="10"/>
     </row>
-    <row r="13" spans="1:11" ht="20" customHeight="1">
-      <c r="A13" s="50"/>
-      <c r="B13" s="52"/>
+    <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="46"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="17"/>
       <c r="D13" s="7"/>
       <c r="E13" s="17"/>
@@ -3286,9 +3262,9 @@
       <c r="J13" s="18"/>
       <c r="K13" s="10"/>
     </row>
-    <row r="14" spans="1:11" ht="20" customHeight="1">
-      <c r="A14" s="50"/>
-      <c r="B14" s="52"/>
+    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="46"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="17"/>
       <c r="D14" s="7"/>
       <c r="E14" s="17"/>
@@ -3299,9 +3275,9 @@
       <c r="J14" s="18"/>
       <c r="K14" s="8"/>
     </row>
-    <row r="15" spans="1:11" ht="20" customHeight="1">
-      <c r="A15" s="50"/>
-      <c r="B15" s="52"/>
+    <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="46"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="17"/>
       <c r="D15" s="19"/>
       <c r="E15" s="17"/>
@@ -3312,9 +3288,9 @@
       <c r="J15" s="18"/>
       <c r="K15" s="10"/>
     </row>
-    <row r="16" spans="1:11" ht="20" customHeight="1">
-      <c r="A16" s="50"/>
-      <c r="B16" s="52"/>
+    <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="46"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="17"/>
       <c r="D16" s="7"/>
       <c r="E16" s="17"/>
@@ -3325,9 +3301,9 @@
       <c r="J16" s="18"/>
       <c r="K16" s="10"/>
     </row>
-    <row r="17" spans="1:11" ht="20" customHeight="1">
-      <c r="A17" s="50"/>
-      <c r="B17" s="52"/>
+    <row r="17" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="46"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="17"/>
       <c r="D17" s="7"/>
       <c r="E17" s="17"/>
@@ -3338,9 +3314,9 @@
       <c r="J17" s="18"/>
       <c r="K17" s="10"/>
     </row>
-    <row r="18" spans="1:11" ht="20" customHeight="1">
-      <c r="A18" s="50"/>
-      <c r="B18" s="52"/>
+    <row r="18" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="46"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="17"/>
       <c r="D18" s="7"/>
       <c r="E18" s="17"/>
@@ -3351,9 +3327,9 @@
       <c r="J18" s="18"/>
       <c r="K18" s="10"/>
     </row>
-    <row r="19" spans="1:11" ht="20" customHeight="1">
-      <c r="A19" s="50"/>
-      <c r="B19" s="53"/>
+    <row r="19" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="46"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="17"/>
       <c r="D19" s="7"/>
       <c r="E19" s="17"/>
@@ -3364,7 +3340,7 @@
       <c r="J19" s="18"/>
       <c r="K19" s="10"/>
     </row>
-    <row r="20" spans="1:11" ht="20" customHeight="1">
+    <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="45" t="s">
         <v>12</v>
       </c>
@@ -3381,9 +3357,9 @@
       <c r="J20" s="16"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" ht="20" customHeight="1">
-      <c r="A21" s="50"/>
-      <c r="B21" s="51" t="s">
+    <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="46"/>
+      <c r="B21" s="48" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="17"/>
@@ -3396,9 +3372,9 @@
       <c r="J21" s="18"/>
       <c r="K21" s="8"/>
     </row>
-    <row r="22" spans="1:11" ht="20" customHeight="1">
-      <c r="A22" s="50"/>
-      <c r="B22" s="52"/>
+    <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="46"/>
+      <c r="B22" s="49"/>
       <c r="C22" s="17"/>
       <c r="D22" s="19"/>
       <c r="E22" s="17"/>
@@ -3409,9 +3385,9 @@
       <c r="J22" s="18"/>
       <c r="K22" s="8"/>
     </row>
-    <row r="23" spans="1:11" ht="20" customHeight="1">
-      <c r="A23" s="50"/>
-      <c r="B23" s="53"/>
+    <row r="23" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="46"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="17"/>
       <c r="D23" s="19"/>
       <c r="E23" s="17"/>
@@ -3422,9 +3398,9 @@
       <c r="J23" s="18"/>
       <c r="K23" s="8"/>
     </row>
-    <row r="24" spans="1:11" ht="20" customHeight="1">
-      <c r="A24" s="50"/>
-      <c r="B24" s="51" t="s">
+    <row r="24" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="46"/>
+      <c r="B24" s="48" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="17"/>
@@ -3437,9 +3413,9 @@
       <c r="J24" s="18"/>
       <c r="K24" s="8"/>
     </row>
-    <row r="25" spans="1:11" ht="20" customHeight="1">
-      <c r="A25" s="50"/>
-      <c r="B25" s="52"/>
+    <row r="25" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="46"/>
+      <c r="B25" s="49"/>
       <c r="C25" s="17"/>
       <c r="D25" s="19"/>
       <c r="E25" s="17"/>
@@ -3450,9 +3426,9 @@
       <c r="J25" s="18"/>
       <c r="K25" s="8"/>
     </row>
-    <row r="26" spans="1:11" ht="20" customHeight="1">
-      <c r="A26" s="50"/>
-      <c r="B26" s="52"/>
+    <row r="26" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="46"/>
+      <c r="B26" s="49"/>
       <c r="C26" s="17"/>
       <c r="D26" s="19"/>
       <c r="E26" s="17"/>
@@ -3463,9 +3439,9 @@
       <c r="J26" s="16"/>
       <c r="K26" s="8"/>
     </row>
-    <row r="27" spans="1:11" ht="20" customHeight="1">
-      <c r="A27" s="50"/>
-      <c r="B27" s="52"/>
+    <row r="27" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="46"/>
+      <c r="B27" s="49"/>
       <c r="C27" s="17"/>
       <c r="D27" s="19"/>
       <c r="E27" s="17"/>
@@ -3476,9 +3452,9 @@
       <c r="J27" s="16"/>
       <c r="K27" s="8"/>
     </row>
-    <row r="28" spans="1:11" ht="20" customHeight="1">
-      <c r="A28" s="50"/>
-      <c r="B28" s="52"/>
+    <row r="28" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="46"/>
+      <c r="B28" s="49"/>
       <c r="C28" s="17"/>
       <c r="D28" s="19"/>
       <c r="E28" s="17"/>
@@ -3489,9 +3465,9 @@
       <c r="J28" s="16"/>
       <c r="K28" s="8"/>
     </row>
-    <row r="29" spans="1:11" ht="20" customHeight="1">
-      <c r="A29" s="50"/>
-      <c r="B29" s="52"/>
+    <row r="29" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="46"/>
+      <c r="B29" s="49"/>
       <c r="C29" s="17"/>
       <c r="D29" s="19"/>
       <c r="E29" s="17"/>
@@ -3502,9 +3478,9 @@
       <c r="J29" s="18"/>
       <c r="K29" s="8"/>
     </row>
-    <row r="30" spans="1:11" ht="20" customHeight="1">
-      <c r="A30" s="50"/>
-      <c r="B30" s="52"/>
+    <row r="30" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="46"/>
+      <c r="B30" s="49"/>
       <c r="C30" s="17"/>
       <c r="D30" s="19"/>
       <c r="E30" s="17"/>
@@ -3515,9 +3491,9 @@
       <c r="J30" s="18"/>
       <c r="K30" s="8"/>
     </row>
-    <row r="31" spans="1:11" ht="20" customHeight="1">
-      <c r="A31" s="50"/>
-      <c r="B31" s="52"/>
+    <row r="31" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="46"/>
+      <c r="B31" s="49"/>
       <c r="C31" s="17"/>
       <c r="D31" s="19"/>
       <c r="E31" s="17"/>
@@ -3528,9 +3504,9 @@
       <c r="J31" s="18"/>
       <c r="K31" s="8"/>
     </row>
-    <row r="32" spans="1:11" ht="20" customHeight="1">
-      <c r="A32" s="50"/>
-      <c r="B32" s="52"/>
+    <row r="32" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="46"/>
+      <c r="B32" s="49"/>
       <c r="C32" s="17"/>
       <c r="D32" s="19"/>
       <c r="E32" s="17"/>
@@ -3541,9 +3517,9 @@
       <c r="J32" s="18"/>
       <c r="K32" s="8"/>
     </row>
-    <row r="33" spans="1:11" ht="20" customHeight="1">
-      <c r="A33" s="50"/>
-      <c r="B33" s="52"/>
+    <row r="33" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="46"/>
+      <c r="B33" s="49"/>
       <c r="C33" s="17"/>
       <c r="D33" s="19"/>
       <c r="E33" s="17"/>
@@ -3554,9 +3530,9 @@
       <c r="J33" s="18"/>
       <c r="K33" s="9"/>
     </row>
-    <row r="34" spans="1:11" ht="20" customHeight="1">
-      <c r="A34" s="50"/>
-      <c r="B34" s="52"/>
+    <row r="34" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="46"/>
+      <c r="B34" s="49"/>
       <c r="C34" s="17"/>
       <c r="D34" s="19"/>
       <c r="E34" s="17"/>
@@ -3567,9 +3543,9 @@
       <c r="J34" s="18"/>
       <c r="K34" s="11"/>
     </row>
-    <row r="35" spans="1:11" ht="20" customHeight="1">
-      <c r="A35" s="50"/>
-      <c r="B35" s="52"/>
+    <row r="35" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="46"/>
+      <c r="B35" s="49"/>
       <c r="C35" s="17"/>
       <c r="D35" s="19"/>
       <c r="E35" s="17"/>
@@ -3580,9 +3556,9 @@
       <c r="J35" s="18"/>
       <c r="K35" s="8"/>
     </row>
-    <row r="36" spans="1:11" ht="20" customHeight="1">
-      <c r="A36" s="50"/>
-      <c r="B36" s="52"/>
+    <row r="36" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="46"/>
+      <c r="B36" s="49"/>
       <c r="C36" s="17"/>
       <c r="D36" s="19"/>
       <c r="E36" s="17"/>
@@ -3593,9 +3569,9 @@
       <c r="J36" s="18"/>
       <c r="K36" s="9"/>
     </row>
-    <row r="37" spans="1:11" ht="20" customHeight="1">
-      <c r="A37" s="50"/>
-      <c r="B37" s="52"/>
+    <row r="37" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="46"/>
+      <c r="B37" s="49"/>
       <c r="C37" s="17"/>
       <c r="D37" s="19"/>
       <c r="E37" s="17"/>
@@ -3606,9 +3582,9 @@
       <c r="J37" s="18"/>
       <c r="K37" s="8"/>
     </row>
-    <row r="38" spans="1:11" ht="20" customHeight="1">
-      <c r="A38" s="50"/>
-      <c r="B38" s="52"/>
+    <row r="38" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="46"/>
+      <c r="B38" s="49"/>
       <c r="C38" s="17"/>
       <c r="D38" s="19"/>
       <c r="E38" s="17"/>
@@ -3619,9 +3595,9 @@
       <c r="J38" s="18"/>
       <c r="K38" s="8"/>
     </row>
-    <row r="39" spans="1:11" ht="20" customHeight="1">
-      <c r="A39" s="50"/>
-      <c r="B39" s="52"/>
+    <row r="39" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="46"/>
+      <c r="B39" s="49"/>
       <c r="C39" s="17"/>
       <c r="D39" s="19"/>
       <c r="E39" s="17"/>
@@ -3632,9 +3608,9 @@
       <c r="J39" s="18"/>
       <c r="K39" s="8"/>
     </row>
-    <row r="40" spans="1:11" ht="20" customHeight="1">
-      <c r="A40" s="50"/>
-      <c r="B40" s="51" t="s">
+    <row r="40" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="46"/>
+      <c r="B40" s="48" t="s">
         <v>22</v>
       </c>
       <c r="C40" s="17"/>
@@ -3647,9 +3623,9 @@
       <c r="J40" s="18"/>
       <c r="K40" s="8"/>
     </row>
-    <row r="41" spans="1:11" ht="20" customHeight="1">
-      <c r="A41" s="50"/>
-      <c r="B41" s="52"/>
+    <row r="41" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="46"/>
+      <c r="B41" s="49"/>
       <c r="C41" s="23"/>
       <c r="D41" s="19"/>
       <c r="E41" s="17"/>
@@ -3660,9 +3636,9 @@
       <c r="J41" s="18"/>
       <c r="K41" s="8"/>
     </row>
-    <row r="42" spans="1:11" ht="20" customHeight="1">
-      <c r="A42" s="46"/>
-      <c r="B42" s="53"/>
+    <row r="42" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="47"/>
+      <c r="B42" s="50"/>
       <c r="C42" s="17"/>
       <c r="D42" s="19"/>
       <c r="E42" s="17"/>
@@ -3699,7 +3675,7 @@
       <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/Spring Webflux.xlsx
+++ b/src/Spring Webflux.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\Java-Concurrency-Programming\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3C2957-BC56-4E33-A521-3580DE347080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5893CE-172A-4B7C-865A-CD20E257C329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="711" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Part1-자바 스레드 &amp; 비동기 프로그래밍" sheetId="1" r:id="rId1"/>
     <sheet name="Part2-Project Reactor" sheetId="5" r:id="rId2"/>
-    <sheet name="Part3-Spring Webflux" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
+    <sheet name="Part3-Spring Webflux" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="138">
   <si>
     <t>비고</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -574,6 +575,10 @@
   </si>
   <si>
     <t>최종 완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1091,6 +1096,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1117,12 +1128,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1413,8 +1418,8 @@
   <dimension ref="B1:L85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+      <pane ySplit="2" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1460,7 +1465,7 @@
       <c r="K2" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="L2" s="51" t="s">
+      <c r="L2" s="42" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1709,7 +1714,7 @@
       </c>
       <c r="J13" s="14"/>
       <c r="K13" s="16"/>
-      <c r="L13" s="52" t="s">
+      <c r="L13" s="43" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1943,8 +1948,12 @@
       <c r="F24" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
+      <c r="G24" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="I24" s="15"/>
       <c r="J24" s="14"/>
       <c r="K24" s="16"/>
@@ -1960,8 +1969,12 @@
       <c r="F25" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
+      <c r="G25" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="I25" s="15"/>
       <c r="J25" s="14"/>
       <c r="K25" s="16"/>
@@ -1977,8 +1990,12 @@
       <c r="F26" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
+      <c r="G26" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="I26" s="15"/>
       <c r="J26" s="14"/>
       <c r="K26" s="16"/>
@@ -1994,8 +2011,12 @@
       <c r="F27" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
+      <c r="G27" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="I27" s="15"/>
       <c r="J27" s="14"/>
       <c r="K27" s="16"/>
@@ -2356,7 +2377,7 @@
     <row r="48" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="28"/>
       <c r="C48" s="31"/>
-      <c r="D48" s="42" t="s">
+      <c r="D48" s="44" t="s">
         <v>73</v>
       </c>
       <c r="E48" s="17" t="s">
@@ -2375,7 +2396,7 @@
     <row r="49" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="28"/>
       <c r="C49" s="31"/>
-      <c r="D49" s="43"/>
+      <c r="D49" s="45"/>
       <c r="E49" s="17" t="s">
         <v>77</v>
       </c>
@@ -2392,7 +2413,7 @@
     <row r="50" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="28"/>
       <c r="C50" s="31"/>
-      <c r="D50" s="43"/>
+      <c r="D50" s="45"/>
       <c r="E50" s="17" t="s">
         <v>78</v>
       </c>
@@ -2409,7 +2430,7 @@
     <row r="51" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="28"/>
       <c r="C51" s="31"/>
-      <c r="D51" s="43"/>
+      <c r="D51" s="45"/>
       <c r="E51" s="17" t="s">
         <v>74</v>
       </c>
@@ -2426,7 +2447,7 @@
     <row r="52" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="28"/>
       <c r="C52" s="31"/>
-      <c r="D52" s="44"/>
+      <c r="D52" s="46"/>
       <c r="E52" s="17" t="s">
         <v>79</v>
       </c>
@@ -2753,7 +2774,9 @@
       <c r="F70" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="G70" s="17"/>
+      <c r="G70" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="H70" s="17"/>
       <c r="I70" s="15"/>
       <c r="J70" s="18"/>
@@ -3091,10 +3114,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="50" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="17" t="s">
@@ -3110,8 +3133,8 @@
       <c r="K2" s="9"/>
     </row>
     <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47"/>
-      <c r="B3" s="50"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="17" t="s">
         <v>15</v>
       </c>
@@ -3125,7 +3148,7 @@
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="47" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -3142,8 +3165,8 @@
       <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46"/>
-      <c r="B5" s="48" t="s">
+      <c r="A5" s="48"/>
+      <c r="B5" s="50" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="17"/>
@@ -3157,8 +3180,8 @@
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="46"/>
-      <c r="B6" s="49"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="17"/>
       <c r="D6" s="7"/>
       <c r="E6" s="17"/>
@@ -3170,8 +3193,8 @@
       <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="46"/>
-      <c r="B7" s="49"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="17"/>
       <c r="D7" s="19"/>
       <c r="E7" s="17"/>
@@ -3183,8 +3206,8 @@
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="46"/>
-      <c r="B8" s="49"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="17"/>
       <c r="D8" s="19"/>
       <c r="E8" s="17"/>
@@ -3196,8 +3219,8 @@
       <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="46"/>
-      <c r="B9" s="50"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="52"/>
       <c r="C9" s="17"/>
       <c r="D9" s="7"/>
       <c r="E9" s="17"/>
@@ -3209,8 +3232,8 @@
       <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="46"/>
-      <c r="B10" s="48" t="s">
+      <c r="A10" s="48"/>
+      <c r="B10" s="50" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="17"/>
@@ -3224,8 +3247,8 @@
       <c r="K10" s="8"/>
     </row>
     <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="46"/>
-      <c r="B11" s="49"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="17"/>
       <c r="D11" s="7"/>
       <c r="E11" s="17"/>
@@ -3237,8 +3260,8 @@
       <c r="K11" s="10"/>
     </row>
     <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="46"/>
-      <c r="B12" s="49"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="17"/>
       <c r="D12" s="7"/>
       <c r="E12" s="17"/>
@@ -3250,8 +3273,8 @@
       <c r="K12" s="10"/>
     </row>
     <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="46"/>
-      <c r="B13" s="49"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="17"/>
       <c r="D13" s="7"/>
       <c r="E13" s="17"/>
@@ -3263,8 +3286,8 @@
       <c r="K13" s="10"/>
     </row>
     <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="46"/>
-      <c r="B14" s="49"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="17"/>
       <c r="D14" s="7"/>
       <c r="E14" s="17"/>
@@ -3276,8 +3299,8 @@
       <c r="K14" s="8"/>
     </row>
     <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="46"/>
-      <c r="B15" s="49"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="17"/>
       <c r="D15" s="19"/>
       <c r="E15" s="17"/>
@@ -3289,8 +3312,8 @@
       <c r="K15" s="10"/>
     </row>
     <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="46"/>
-      <c r="B16" s="49"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="17"/>
       <c r="D16" s="7"/>
       <c r="E16" s="17"/>
@@ -3302,8 +3325,8 @@
       <c r="K16" s="10"/>
     </row>
     <row r="17" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="46"/>
-      <c r="B17" s="49"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="17"/>
       <c r="D17" s="7"/>
       <c r="E17" s="17"/>
@@ -3315,8 +3338,8 @@
       <c r="K17" s="10"/>
     </row>
     <row r="18" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="46"/>
-      <c r="B18" s="49"/>
+      <c r="A18" s="48"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="17"/>
       <c r="D18" s="7"/>
       <c r="E18" s="17"/>
@@ -3328,8 +3351,8 @@
       <c r="K18" s="10"/>
     </row>
     <row r="19" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="46"/>
-      <c r="B19" s="50"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="17"/>
       <c r="D19" s="7"/>
       <c r="E19" s="17"/>
@@ -3341,7 +3364,7 @@
       <c r="K19" s="10"/>
     </row>
     <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="47" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="21" t="s">
@@ -3358,8 +3381,8 @@
       <c r="K20" s="20"/>
     </row>
     <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="46"/>
-      <c r="B21" s="48" t="s">
+      <c r="A21" s="48"/>
+      <c r="B21" s="50" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="17"/>
@@ -3373,8 +3396,8 @@
       <c r="K21" s="8"/>
     </row>
     <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="46"/>
-      <c r="B22" s="49"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="51"/>
       <c r="C22" s="17"/>
       <c r="D22" s="19"/>
       <c r="E22" s="17"/>
@@ -3386,8 +3409,8 @@
       <c r="K22" s="8"/>
     </row>
     <row r="23" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="46"/>
-      <c r="B23" s="50"/>
+      <c r="A23" s="48"/>
+      <c r="B23" s="52"/>
       <c r="C23" s="17"/>
       <c r="D23" s="19"/>
       <c r="E23" s="17"/>
@@ -3399,8 +3422,8 @@
       <c r="K23" s="8"/>
     </row>
     <row r="24" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="46"/>
-      <c r="B24" s="48" t="s">
+      <c r="A24" s="48"/>
+      <c r="B24" s="50" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="17"/>
@@ -3414,8 +3437,8 @@
       <c r="K24" s="8"/>
     </row>
     <row r="25" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="46"/>
-      <c r="B25" s="49"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="51"/>
       <c r="C25" s="17"/>
       <c r="D25" s="19"/>
       <c r="E25" s="17"/>
@@ -3427,8 +3450,8 @@
       <c r="K25" s="8"/>
     </row>
     <row r="26" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="46"/>
-      <c r="B26" s="49"/>
+      <c r="A26" s="48"/>
+      <c r="B26" s="51"/>
       <c r="C26" s="17"/>
       <c r="D26" s="19"/>
       <c r="E26" s="17"/>
@@ -3440,8 +3463,8 @@
       <c r="K26" s="8"/>
     </row>
     <row r="27" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="46"/>
-      <c r="B27" s="49"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="17"/>
       <c r="D27" s="19"/>
       <c r="E27" s="17"/>
@@ -3453,8 +3476,8 @@
       <c r="K27" s="8"/>
     </row>
     <row r="28" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="46"/>
-      <c r="B28" s="49"/>
+      <c r="A28" s="48"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="17"/>
       <c r="D28" s="19"/>
       <c r="E28" s="17"/>
@@ -3466,8 +3489,8 @@
       <c r="K28" s="8"/>
     </row>
     <row r="29" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="46"/>
-      <c r="B29" s="49"/>
+      <c r="A29" s="48"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="17"/>
       <c r="D29" s="19"/>
       <c r="E29" s="17"/>
@@ -3479,8 +3502,8 @@
       <c r="K29" s="8"/>
     </row>
     <row r="30" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="46"/>
-      <c r="B30" s="49"/>
+      <c r="A30" s="48"/>
+      <c r="B30" s="51"/>
       <c r="C30" s="17"/>
       <c r="D30" s="19"/>
       <c r="E30" s="17"/>
@@ -3492,8 +3515,8 @@
       <c r="K30" s="8"/>
     </row>
     <row r="31" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="46"/>
-      <c r="B31" s="49"/>
+      <c r="A31" s="48"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="17"/>
       <c r="D31" s="19"/>
       <c r="E31" s="17"/>
@@ -3505,8 +3528,8 @@
       <c r="K31" s="8"/>
     </row>
     <row r="32" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="46"/>
-      <c r="B32" s="49"/>
+      <c r="A32" s="48"/>
+      <c r="B32" s="51"/>
       <c r="C32" s="17"/>
       <c r="D32" s="19"/>
       <c r="E32" s="17"/>
@@ -3518,8 +3541,8 @@
       <c r="K32" s="8"/>
     </row>
     <row r="33" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="46"/>
-      <c r="B33" s="49"/>
+      <c r="A33" s="48"/>
+      <c r="B33" s="51"/>
       <c r="C33" s="17"/>
       <c r="D33" s="19"/>
       <c r="E33" s="17"/>
@@ -3531,8 +3554,8 @@
       <c r="K33" s="9"/>
     </row>
     <row r="34" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="46"/>
-      <c r="B34" s="49"/>
+      <c r="A34" s="48"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="17"/>
       <c r="D34" s="19"/>
       <c r="E34" s="17"/>
@@ -3544,8 +3567,8 @@
       <c r="K34" s="11"/>
     </row>
     <row r="35" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="46"/>
-      <c r="B35" s="49"/>
+      <c r="A35" s="48"/>
+      <c r="B35" s="51"/>
       <c r="C35" s="17"/>
       <c r="D35" s="19"/>
       <c r="E35" s="17"/>
@@ -3557,8 +3580,8 @@
       <c r="K35" s="8"/>
     </row>
     <row r="36" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="46"/>
-      <c r="B36" s="49"/>
+      <c r="A36" s="48"/>
+      <c r="B36" s="51"/>
       <c r="C36" s="17"/>
       <c r="D36" s="19"/>
       <c r="E36" s="17"/>
@@ -3570,8 +3593,8 @@
       <c r="K36" s="9"/>
     </row>
     <row r="37" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="46"/>
-      <c r="B37" s="49"/>
+      <c r="A37" s="48"/>
+      <c r="B37" s="51"/>
       <c r="C37" s="17"/>
       <c r="D37" s="19"/>
       <c r="E37" s="17"/>
@@ -3583,8 +3606,8 @@
       <c r="K37" s="8"/>
     </row>
     <row r="38" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="46"/>
-      <c r="B38" s="49"/>
+      <c r="A38" s="48"/>
+      <c r="B38" s="51"/>
       <c r="C38" s="17"/>
       <c r="D38" s="19"/>
       <c r="E38" s="17"/>
@@ -3596,8 +3619,8 @@
       <c r="K38" s="8"/>
     </row>
     <row r="39" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="46"/>
-      <c r="B39" s="49"/>
+      <c r="A39" s="48"/>
+      <c r="B39" s="51"/>
       <c r="C39" s="17"/>
       <c r="D39" s="19"/>
       <c r="E39" s="17"/>
@@ -3609,8 +3632,8 @@
       <c r="K39" s="8"/>
     </row>
     <row r="40" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="46"/>
-      <c r="B40" s="48" t="s">
+      <c r="A40" s="48"/>
+      <c r="B40" s="50" t="s">
         <v>22</v>
       </c>
       <c r="C40" s="17"/>
@@ -3624,8 +3647,8 @@
       <c r="K40" s="8"/>
     </row>
     <row r="41" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="46"/>
-      <c r="B41" s="49"/>
+      <c r="A41" s="48"/>
+      <c r="B41" s="51"/>
       <c r="C41" s="23"/>
       <c r="D41" s="19"/>
       <c r="E41" s="17"/>
@@ -3637,8 +3660,8 @@
       <c r="K41" s="8"/>
     </row>
     <row r="42" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="47"/>
-      <c r="B42" s="50"/>
+      <c r="A42" s="49"/>
+      <c r="B42" s="52"/>
       <c r="C42" s="17"/>
       <c r="D42" s="19"/>
       <c r="E42" s="17"/>
@@ -3668,6 +3691,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CB53885-CBF7-4950-8D8B-CFE1AAEE5140}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94463925-F266-4D07-A5A3-A4F192C36490}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/src/Spring Webflux.xlsx
+++ b/src/Spring Webflux.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\Java-Concurrency-Programming\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5893CE-172A-4B7C-865A-CD20E257C329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283E0762-9026-4B2E-B98E-5A1E4DC8B29A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="711" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="136">
   <si>
     <t>비고</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -326,10 +326,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Java 동기화 도구</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -547,10 +543,6 @@
   </si>
   <si>
     <t>synchronized 특성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Happens-Before</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1415,11 +1407,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:L85"/>
+  <dimension ref="B1:L84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G70" sqref="G70"/>
+      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1463,7 +1455,7 @@
         <v>9</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L2" s="42" t="s">
         <v>0</v>
@@ -1474,16 +1466,16 @@
       <c r="C3" s="38"/>
       <c r="D3" s="38"/>
       <c r="E3" s="39" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I3" s="40"/>
       <c r="J3" s="41"/>
@@ -1499,16 +1491,16 @@
       </c>
       <c r="D4" s="25"/>
       <c r="E4" s="17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="14"/>
@@ -1527,13 +1519,13 @@
         <v>23</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I5" s="15"/>
       <c r="J5" s="14"/>
@@ -1548,13 +1540,13 @@
         <v>24</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="14"/>
@@ -1569,13 +1561,13 @@
         <v>55</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="14"/>
@@ -1590,13 +1582,13 @@
         <v>35</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="14"/>
@@ -1611,13 +1603,13 @@
         <v>56</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="14"/>
@@ -1632,13 +1624,13 @@
         <v>57</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="14"/>
@@ -1659,13 +1651,13 @@
         <v>59</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="14"/>
@@ -1680,13 +1672,13 @@
         <v>60</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="14"/>
@@ -1701,21 +1693,21 @@
         <v>62</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J13" s="14"/>
       <c r="K13" s="16"/>
       <c r="L13" s="43" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1728,13 +1720,13 @@
         <v>63</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="14"/>
@@ -1749,13 +1741,13 @@
         <v>64</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="14"/>
@@ -1770,13 +1762,13 @@
         <v>30</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I16" s="15"/>
       <c r="J16" s="14"/>
@@ -1791,13 +1783,13 @@
         <v>68</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I17" s="15"/>
       <c r="J17" s="14"/>
@@ -1812,13 +1804,13 @@
         <v>67</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I18" s="15"/>
       <c r="J18" s="14"/>
@@ -1832,16 +1824,16 @@
         <v>65</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I19" s="15"/>
       <c r="J19" s="14"/>
@@ -1853,16 +1845,16 @@
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
       <c r="E20" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I20" s="15"/>
       <c r="J20" s="14"/>
@@ -1877,13 +1869,13 @@
         <v>26</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I21" s="15"/>
       <c r="J21" s="14"/>
@@ -1898,13 +1890,13 @@
         <v>29</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I22" s="15"/>
       <c r="J22" s="14"/>
@@ -1919,13 +1911,13 @@
         <v>49</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I23" s="15"/>
       <c r="J23" s="14"/>
@@ -1946,13 +1938,13 @@
         <v>61</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I24" s="15"/>
       <c r="J24" s="14"/>
@@ -1964,16 +1956,16 @@
       <c r="C25" s="30"/>
       <c r="D25" s="22"/>
       <c r="E25" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I25" s="15"/>
       <c r="J25" s="14"/>
@@ -1988,13 +1980,13 @@
         <v>45</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I26" s="15"/>
       <c r="J26" s="14"/>
@@ -2009,13 +2001,13 @@
         <v>37</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I27" s="15"/>
       <c r="J27" s="14"/>
@@ -2026,16 +2018,20 @@
       <c r="B28" s="28"/>
       <c r="C28" s="22"/>
       <c r="D28" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E28" s="17" t="s">
         <v>41</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
+        <v>130</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>130</v>
+      </c>
       <c r="I28" s="15"/>
       <c r="J28" s="14"/>
       <c r="K28" s="16"/>
@@ -2049,10 +2045,14 @@
         <v>31</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
+        <v>130</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>130</v>
+      </c>
       <c r="I29" s="15"/>
       <c r="J29" s="14"/>
       <c r="K29" s="16"/>
@@ -2066,10 +2066,14 @@
         <v>32</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
+        <v>130</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>130</v>
+      </c>
       <c r="I30" s="15"/>
       <c r="J30" s="14"/>
       <c r="K30" s="16"/>
@@ -2083,10 +2087,14 @@
         <v>33</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
+        <v>130</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>130</v>
+      </c>
       <c r="I31" s="15"/>
       <c r="J31" s="14"/>
       <c r="K31" s="16"/>
@@ -2103,13 +2111,17 @@
         <v>38</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
+        <v>130</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>130</v>
+      </c>
       <c r="I32" s="15"/>
       <c r="J32" s="14"/>
       <c r="K32" s="16"/>
@@ -2120,13 +2132,17 @@
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
       <c r="E33" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
+        <v>130</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>130</v>
+      </c>
       <c r="I33" s="15"/>
       <c r="J33" s="14"/>
       <c r="K33" s="16"/>
@@ -2137,13 +2153,17 @@
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
       <c r="E34" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
+        <v>130</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>130</v>
+      </c>
       <c r="I34" s="15"/>
       <c r="J34" s="14"/>
       <c r="K34" s="16"/>
@@ -2154,13 +2174,17 @@
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
       <c r="E35" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
+        <v>130</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>130</v>
+      </c>
       <c r="I35" s="15"/>
       <c r="J35" s="14"/>
       <c r="K35" s="16"/>
@@ -2171,13 +2195,17 @@
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
       <c r="E36" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
+        <v>130</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>130</v>
+      </c>
       <c r="I36" s="15"/>
       <c r="J36" s="14"/>
       <c r="K36" s="16"/>
@@ -2191,10 +2219,14 @@
         <v>71</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
+        <v>130</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>130</v>
+      </c>
       <c r="I37" s="15"/>
       <c r="J37" s="14"/>
       <c r="K37" s="16"/>
@@ -2205,13 +2237,17 @@
       <c r="C38" s="22"/>
       <c r="D38" s="31"/>
       <c r="E38" s="17" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
+        <v>130</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>130</v>
+      </c>
       <c r="I38" s="15"/>
       <c r="J38" s="14"/>
       <c r="K38" s="16"/>
@@ -2220,16 +2256,16 @@
     <row r="39" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="33"/>
       <c r="C39" s="22"/>
-      <c r="D39" s="31"/>
+      <c r="D39" s="26" t="s">
+        <v>42</v>
+      </c>
       <c r="E39" s="17" t="s">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="G39" s="14" t="s">
-        <v>72</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G39" s="14"/>
       <c r="H39" s="14"/>
       <c r="I39" s="15"/>
       <c r="J39" s="14"/>
@@ -2239,19 +2275,17 @@
     <row r="40" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="33"/>
       <c r="C40" s="22"/>
-      <c r="D40" s="26" t="s">
-        <v>42</v>
-      </c>
+      <c r="D40" s="31"/>
       <c r="E40" s="17" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
       <c r="I40" s="15"/>
-      <c r="J40" s="14"/>
+      <c r="J40" s="36"/>
       <c r="K40" s="16"/>
       <c r="L40" s="16"/>
     </row>
@@ -2260,10 +2294,10 @@
       <c r="C41" s="22"/>
       <c r="D41" s="31"/>
       <c r="E41" s="17" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
@@ -2280,7 +2314,7 @@
         <v>124</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
@@ -2294,10 +2328,10 @@
       <c r="C43" s="22"/>
       <c r="D43" s="31"/>
       <c r="E43" s="17" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G43" s="14"/>
       <c r="H43" s="14"/>
@@ -2307,19 +2341,19 @@
       <c r="L43" s="16"/>
     </row>
     <row r="44" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="33"/>
+      <c r="B44" s="28"/>
       <c r="C44" s="22"/>
-      <c r="D44" s="31"/>
+      <c r="D44" s="22"/>
       <c r="E44" s="17" t="s">
         <v>120</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="G44" s="14"/>
+        <v>130</v>
+      </c>
+      <c r="G44" s="17"/>
       <c r="H44" s="14"/>
       <c r="I44" s="15"/>
-      <c r="J44" s="36"/>
+      <c r="J44" s="18"/>
       <c r="K44" s="16"/>
       <c r="L44" s="16"/>
     </row>
@@ -2331,7 +2365,7 @@
         <v>121</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G45" s="17"/>
       <c r="H45" s="14"/>
@@ -2345,13 +2379,17 @@
       <c r="C46" s="22"/>
       <c r="D46" s="22"/>
       <c r="E46" s="17" t="s">
-        <v>122</v>
+        <v>43</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="G46" s="17"/>
-      <c r="H46" s="14"/>
+        <v>130</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="H46" s="14" t="s">
+        <v>130</v>
+      </c>
       <c r="I46" s="15"/>
       <c r="J46" s="18"/>
       <c r="K46" s="16"/>
@@ -2359,13 +2397,15 @@
     </row>
     <row r="47" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="28"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="44" t="s">
+        <v>72</v>
+      </c>
       <c r="E47" s="17" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G47" s="17"/>
       <c r="H47" s="14"/>
@@ -2377,14 +2417,12 @@
     <row r="48" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="28"/>
       <c r="C48" s="31"/>
-      <c r="D48" s="44" t="s">
-        <v>73</v>
-      </c>
+      <c r="D48" s="45"/>
       <c r="E48" s="17" t="s">
         <v>76</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G48" s="17"/>
       <c r="H48" s="14"/>
@@ -2401,7 +2439,7 @@
         <v>77</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G49" s="17"/>
       <c r="H49" s="14"/>
@@ -2415,10 +2453,10 @@
       <c r="C50" s="31"/>
       <c r="D50" s="45"/>
       <c r="E50" s="17" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G50" s="17"/>
       <c r="H50" s="14"/>
@@ -2430,12 +2468,12 @@
     <row r="51" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="28"/>
       <c r="C51" s="31"/>
-      <c r="D51" s="45"/>
+      <c r="D51" s="46"/>
       <c r="E51" s="17" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G51" s="17"/>
       <c r="H51" s="14"/>
@@ -2445,37 +2483,37 @@
       <c r="L51" s="16"/>
     </row>
     <row r="52" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="28"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="46"/>
+      <c r="B52" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>48</v>
+      </c>
       <c r="E52" s="17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G52" s="17"/>
-      <c r="H52" s="14"/>
+      <c r="H52" s="17"/>
       <c r="I52" s="15"/>
       <c r="J52" s="18"/>
       <c r="K52" s="16"/>
       <c r="L52" s="16"/>
     </row>
     <row r="53" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C53" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="D53" s="26" t="s">
-        <v>48</v>
-      </c>
+      <c r="B53" s="29"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="17"/>
       <c r="E53" s="17" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G53" s="17"/>
       <c r="H53" s="17"/>
@@ -2486,13 +2524,13 @@
     </row>
     <row r="54" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="29"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="17"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="25"/>
       <c r="E54" s="17" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G54" s="17"/>
       <c r="H54" s="17"/>
@@ -2502,14 +2540,16 @@
       <c r="L54" s="16"/>
     </row>
     <row r="55" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="29"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="17" t="s">
-        <v>52</v>
+      <c r="B55" s="32"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G55" s="17"/>
       <c r="H55" s="17"/>
@@ -2520,15 +2560,13 @@
     </row>
     <row r="56" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="32"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="25" t="s">
-        <v>53</v>
-      </c>
+      <c r="C56" s="35"/>
+      <c r="D56" s="22"/>
       <c r="E56" s="7" t="s">
         <v>84</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G56" s="17"/>
       <c r="H56" s="17"/>
@@ -2538,14 +2576,16 @@
       <c r="L56" s="16"/>
     </row>
     <row r="57" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="32"/>
-      <c r="C57" s="35"/>
-      <c r="D57" s="22"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="17" t="s">
+        <v>85</v>
+      </c>
       <c r="E57" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G57" s="17"/>
       <c r="H57" s="17"/>
@@ -2556,15 +2596,13 @@
     </row>
     <row r="58" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="29"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E58" s="7" t="s">
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="17" t="s">
         <v>87</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G58" s="17"/>
       <c r="H58" s="17"/>
@@ -2575,13 +2613,13 @@
     </row>
     <row r="59" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="29"/>
-      <c r="C59" s="22"/>
+      <c r="C59" s="31"/>
       <c r="D59" s="22"/>
-      <c r="E59" s="17" t="s">
-        <v>88</v>
+      <c r="E59" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G59" s="17"/>
       <c r="H59" s="17"/>
@@ -2594,11 +2632,11 @@
       <c r="B60" s="29"/>
       <c r="C60" s="31"/>
       <c r="D60" s="22"/>
-      <c r="E60" s="7" t="s">
-        <v>97</v>
+      <c r="E60" s="17" t="s">
+        <v>88</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G60" s="17"/>
       <c r="H60" s="17"/>
@@ -2609,13 +2647,15 @@
     </row>
     <row r="61" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="29"/>
-      <c r="C61" s="31"/>
-      <c r="D61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="25" t="s">
+        <v>54</v>
+      </c>
       <c r="E61" s="17" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="F61" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G61" s="17"/>
       <c r="H61" s="17"/>
@@ -2627,14 +2667,12 @@
     <row r="62" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="29"/>
       <c r="C62" s="22"/>
-      <c r="D62" s="25" t="s">
-        <v>54</v>
-      </c>
+      <c r="D62" s="22"/>
       <c r="E62" s="17" t="s">
         <v>109</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G62" s="17"/>
       <c r="H62" s="17"/>
@@ -2651,7 +2689,7 @@
         <v>110</v>
       </c>
       <c r="F63" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G63" s="17"/>
       <c r="H63" s="17"/>
@@ -2663,12 +2701,14 @@
     <row r="64" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="29"/>
       <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
+      <c r="D64" s="25" t="s">
+        <v>111</v>
+      </c>
       <c r="E64" s="17" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F64" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G64" s="17"/>
       <c r="H64" s="17"/>
@@ -2680,14 +2720,12 @@
     <row r="65" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="29"/>
       <c r="C65" s="22"/>
-      <c r="D65" s="25" t="s">
-        <v>112</v>
-      </c>
+      <c r="D65" s="22"/>
       <c r="E65" s="17" t="s">
         <v>114</v>
       </c>
       <c r="F65" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G65" s="17"/>
       <c r="H65" s="17"/>
@@ -2704,7 +2742,7 @@
         <v>115</v>
       </c>
       <c r="F66" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G66" s="17"/>
       <c r="H66" s="17"/>
@@ -2721,7 +2759,7 @@
         <v>116</v>
       </c>
       <c r="F67" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G67" s="17"/>
       <c r="H67" s="17"/>
@@ -2738,7 +2776,7 @@
         <v>117</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G68" s="17"/>
       <c r="H68" s="17"/>
@@ -2752,31 +2790,37 @@
       <c r="C69" s="22"/>
       <c r="D69" s="22"/>
       <c r="E69" s="17" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F69" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="G69" s="17"/>
+        <v>130</v>
+      </c>
+      <c r="G69" s="17" t="s">
+        <v>135</v>
+      </c>
       <c r="H69" s="17"/>
       <c r="I69" s="15"/>
       <c r="J69" s="18"/>
       <c r="K69" s="16"/>
       <c r="L69" s="16"/>
     </row>
-    <row r="70" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="29"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="17" t="s">
-        <v>113</v>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B70" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C70" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D70" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E70" s="34" t="s">
+        <v>92</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="G70" s="17" t="s">
-        <v>137</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G70" s="17"/>
       <c r="H70" s="17"/>
       <c r="I70" s="15"/>
       <c r="J70" s="18"/>
@@ -2784,20 +2828,14 @@
       <c r="L70" s="16"/>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B71" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="C71" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D71" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="E71" s="34" t="s">
-        <v>93</v>
+      <c r="B71" s="29"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="F71" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G71" s="17"/>
       <c r="H71" s="17"/>
@@ -2806,7 +2844,7 @@
       <c r="K71" s="16"/>
       <c r="L71" s="16"/>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="29"/>
       <c r="C72" s="30"/>
       <c r="D72" s="22"/>
@@ -2814,7 +2852,7 @@
         <v>104</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G72" s="17"/>
       <c r="H72" s="17"/>
@@ -2827,11 +2865,11 @@
       <c r="B73" s="29"/>
       <c r="C73" s="30"/>
       <c r="D73" s="22"/>
-      <c r="E73" s="7" t="s">
+      <c r="E73" s="34" t="s">
         <v>105</v>
       </c>
       <c r="F73" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G73" s="17"/>
       <c r="H73" s="17"/>
@@ -2848,7 +2886,7 @@
         <v>106</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G74" s="17"/>
       <c r="H74" s="17"/>
@@ -2857,15 +2895,15 @@
       <c r="K74" s="16"/>
       <c r="L74" s="16"/>
     </row>
-    <row r="75" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="29"/>
       <c r="C75" s="30"/>
       <c r="D75" s="22"/>
-      <c r="E75" s="34" t="s">
-        <v>107</v>
+      <c r="E75" s="23" t="s">
+        <v>89</v>
       </c>
       <c r="F75" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G75" s="17"/>
       <c r="H75" s="17"/>
@@ -2878,11 +2916,11 @@
       <c r="B76" s="29"/>
       <c r="C76" s="30"/>
       <c r="D76" s="22"/>
-      <c r="E76" s="23" t="s">
-        <v>90</v>
+      <c r="E76" s="17" t="s">
+        <v>97</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G76" s="17"/>
       <c r="H76" s="17"/>
@@ -2899,7 +2937,7 @@
         <v>98</v>
       </c>
       <c r="F77" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G77" s="17"/>
       <c r="H77" s="17"/>
@@ -2908,15 +2946,17 @@
       <c r="K77" s="16"/>
       <c r="L77" s="16"/>
     </row>
-    <row r="78" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B78" s="29"/>
-      <c r="C78" s="30"/>
-      <c r="D78" s="22"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="25" t="s">
+        <v>25</v>
+      </c>
       <c r="E78" s="17" t="s">
         <v>99</v>
       </c>
       <c r="F78" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G78" s="17"/>
       <c r="H78" s="17"/>
@@ -2929,13 +2969,13 @@
       <c r="B79" s="29"/>
       <c r="C79" s="22"/>
       <c r="D79" s="25" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="E79" s="17" t="s">
         <v>100</v>
       </c>
       <c r="F79" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G79" s="17"/>
       <c r="H79" s="17"/>
@@ -2944,17 +2984,17 @@
       <c r="K79" s="16"/>
       <c r="L79" s="16"/>
     </row>
-    <row r="80" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="29"/>
       <c r="C80" s="22"/>
       <c r="D80" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E80" s="17" t="s">
-        <v>101</v>
+        <v>51</v>
+      </c>
+      <c r="E80" s="23" t="s">
+        <v>93</v>
       </c>
       <c r="F80" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G80" s="17"/>
       <c r="H80" s="17"/>
@@ -2966,14 +3006,12 @@
     <row r="81" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="29"/>
       <c r="C81" s="22"/>
-      <c r="D81" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="E81" s="23" t="s">
+      <c r="D81" s="22"/>
+      <c r="E81" s="17" t="s">
         <v>94</v>
       </c>
       <c r="F81" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G81" s="17"/>
       <c r="H81" s="17"/>
@@ -2982,7 +3020,7 @@
       <c r="K81" s="16"/>
       <c r="L81" s="16"/>
     </row>
-    <row r="82" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="29"/>
       <c r="C82" s="22"/>
       <c r="D82" s="22"/>
@@ -2990,7 +3028,7 @@
         <v>95</v>
       </c>
       <c r="F82" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G82" s="17"/>
       <c r="H82" s="17"/>
@@ -3004,10 +3042,10 @@
       <c r="C83" s="22"/>
       <c r="D83" s="22"/>
       <c r="E83" s="17" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F83" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G83" s="17"/>
       <c r="H83" s="17"/>
@@ -3024,35 +3062,20 @@
         <v>102</v>
       </c>
       <c r="F84" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="G84" s="17"/>
+        <v>130</v>
+      </c>
+      <c r="G84" s="17" t="s">
+        <v>135</v>
+      </c>
       <c r="H84" s="17"/>
       <c r="I84" s="15"/>
       <c r="J84" s="18"/>
       <c r="K84" s="16"/>
       <c r="L84" s="16"/>
     </row>
-    <row r="85" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="29"/>
-      <c r="C85" s="22"/>
-      <c r="D85" s="22"/>
-      <c r="E85" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="F85" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="G85" s="17"/>
-      <c r="H85" s="17"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="18"/>
-      <c r="K85" s="16"/>
-      <c r="L85" s="16"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="D47:D51"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/Spring Webflux.xlsx
+++ b/src/Spring Webflux.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\Java-Concurrency-Programming\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283E0762-9026-4B2E-B98E-5A1E4DC8B29A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FCE928-579E-44F2-ABE0-96A877200C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="711" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="711" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Part1-자바 스레드 &amp; 비동기 프로그래밍" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="135">
   <si>
     <t>비고</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -506,14 +506,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ReentrantReadWriteLock.ReadLock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReentrantReadWriteLock.WriteLock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ReentrantReadWriteLock 재진입성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -571,6 +563,10 @@
   </si>
   <si>
     <t xml:space="preserve">   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReentrantReadWriteLock.ReadLock_.WriteLock</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1407,11 +1403,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:L84"/>
+  <dimension ref="B1:L83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I41" sqref="I41"/>
+      <pane ySplit="2" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N67" sqref="N67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1455,7 +1451,7 @@
         <v>9</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L2" s="42" t="s">
         <v>0</v>
@@ -1466,16 +1462,16 @@
       <c r="C3" s="38"/>
       <c r="D3" s="38"/>
       <c r="E3" s="39" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I3" s="40"/>
       <c r="J3" s="41"/>
@@ -1491,16 +1487,16 @@
       </c>
       <c r="D4" s="25"/>
       <c r="E4" s="17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="14"/>
@@ -1519,13 +1515,13 @@
         <v>23</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I5" s="15"/>
       <c r="J5" s="14"/>
@@ -1540,13 +1536,13 @@
         <v>24</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="14"/>
@@ -1561,13 +1557,13 @@
         <v>55</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="14"/>
@@ -1582,13 +1578,13 @@
         <v>35</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="14"/>
@@ -1603,13 +1599,13 @@
         <v>56</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="14"/>
@@ -1624,13 +1620,13 @@
         <v>57</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="14"/>
@@ -1651,13 +1647,13 @@
         <v>59</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="14"/>
@@ -1672,13 +1668,13 @@
         <v>60</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="14"/>
@@ -1693,21 +1689,21 @@
         <v>62</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J13" s="14"/>
       <c r="K13" s="16"/>
       <c r="L13" s="43" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1720,13 +1716,13 @@
         <v>63</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="14"/>
@@ -1741,13 +1737,13 @@
         <v>64</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="14"/>
@@ -1762,13 +1758,13 @@
         <v>30</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I16" s="15"/>
       <c r="J16" s="14"/>
@@ -1783,13 +1779,13 @@
         <v>68</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I17" s="15"/>
       <c r="J17" s="14"/>
@@ -1804,13 +1800,13 @@
         <v>67</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I18" s="15"/>
       <c r="J18" s="14"/>
@@ -1824,16 +1820,16 @@
         <v>65</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I19" s="15"/>
       <c r="J19" s="14"/>
@@ -1848,13 +1844,13 @@
         <v>90</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I20" s="15"/>
       <c r="J20" s="14"/>
@@ -1869,13 +1865,13 @@
         <v>26</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I21" s="15"/>
       <c r="J21" s="14"/>
@@ -1890,13 +1886,13 @@
         <v>29</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I22" s="15"/>
       <c r="J22" s="14"/>
@@ -1911,13 +1907,13 @@
         <v>49</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I23" s="15"/>
       <c r="J23" s="14"/>
@@ -1938,13 +1934,13 @@
         <v>61</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I24" s="15"/>
       <c r="J24" s="14"/>
@@ -1959,13 +1955,13 @@
         <v>91</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I25" s="15"/>
       <c r="J25" s="14"/>
@@ -1980,13 +1976,13 @@
         <v>45</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I26" s="15"/>
       <c r="J26" s="14"/>
@@ -2001,13 +1997,13 @@
         <v>37</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I27" s="15"/>
       <c r="J27" s="14"/>
@@ -2024,13 +2020,13 @@
         <v>41</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I28" s="15"/>
       <c r="J28" s="14"/>
@@ -2045,13 +2041,13 @@
         <v>31</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I29" s="15"/>
       <c r="J29" s="14"/>
@@ -2066,13 +2062,13 @@
         <v>32</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I30" s="15"/>
       <c r="J30" s="14"/>
@@ -2087,13 +2083,13 @@
         <v>33</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I31" s="15"/>
       <c r="J31" s="14"/>
@@ -2111,16 +2107,16 @@
         <v>38</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I32" s="15"/>
       <c r="J32" s="14"/>
@@ -2132,16 +2128,16 @@
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
       <c r="E33" s="17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I33" s="15"/>
       <c r="J33" s="14"/>
@@ -2153,16 +2149,16 @@
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
       <c r="E34" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I34" s="15"/>
       <c r="J34" s="14"/>
@@ -2174,16 +2170,16 @@
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
       <c r="E35" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I35" s="15"/>
       <c r="J35" s="14"/>
@@ -2198,13 +2194,13 @@
         <v>79</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I36" s="15"/>
       <c r="J36" s="14"/>
@@ -2219,13 +2215,13 @@
         <v>71</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I37" s="15"/>
       <c r="J37" s="14"/>
@@ -2240,13 +2236,13 @@
         <v>69</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H38" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I38" s="15"/>
       <c r="J38" s="14"/>
@@ -2260,13 +2256,17 @@
         <v>42</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
+        <v>128</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>128</v>
+      </c>
       <c r="I39" s="15"/>
       <c r="J39" s="14"/>
       <c r="K39" s="16"/>
@@ -2280,10 +2280,14 @@
         <v>118</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
+        <v>128</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>128</v>
+      </c>
       <c r="I40" s="15"/>
       <c r="J40" s="36"/>
       <c r="K40" s="16"/>
@@ -2294,13 +2298,17 @@
       <c r="C41" s="22"/>
       <c r="D41" s="31"/>
       <c r="E41" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
+        <v>128</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>128</v>
+      </c>
       <c r="I41" s="15"/>
       <c r="J41" s="36"/>
       <c r="K41" s="16"/>
@@ -2311,13 +2319,17 @@
       <c r="C42" s="22"/>
       <c r="D42" s="31"/>
       <c r="E42" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
+        <v>128</v>
+      </c>
+      <c r="G42" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>128</v>
+      </c>
       <c r="I42" s="15"/>
       <c r="J42" s="36"/>
       <c r="K42" s="16"/>
@@ -2328,13 +2340,17 @@
       <c r="C43" s="22"/>
       <c r="D43" s="31"/>
       <c r="E43" s="17" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
+        <v>128</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>128</v>
+      </c>
       <c r="I43" s="15"/>
       <c r="J43" s="36"/>
       <c r="K43" s="16"/>
@@ -2345,13 +2361,17 @@
       <c r="C44" s="22"/>
       <c r="D44" s="22"/>
       <c r="E44" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="G44" s="17"/>
-      <c r="H44" s="14"/>
+        <v>128</v>
+      </c>
+      <c r="G44" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="H44" s="14" t="s">
+        <v>128</v>
+      </c>
       <c r="I44" s="15"/>
       <c r="J44" s="18"/>
       <c r="K44" s="16"/>
@@ -2362,13 +2382,17 @@
       <c r="C45" s="22"/>
       <c r="D45" s="22"/>
       <c r="E45" s="17" t="s">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="G45" s="17"/>
-      <c r="H45" s="14"/>
+        <v>128</v>
+      </c>
+      <c r="G45" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="H45" s="14" t="s">
+        <v>128</v>
+      </c>
       <c r="I45" s="15"/>
       <c r="J45" s="18"/>
       <c r="K45" s="16"/>
@@ -2376,19 +2400,21 @@
     </row>
     <row r="46" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="28"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="44" t="s">
+        <v>72</v>
+      </c>
       <c r="E46" s="17" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H46" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I46" s="15"/>
       <c r="J46" s="18"/>
@@ -2398,17 +2424,19 @@
     <row r="47" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="28"/>
       <c r="C47" s="31"/>
-      <c r="D47" s="44" t="s">
-        <v>72</v>
-      </c>
+      <c r="D47" s="45"/>
       <c r="E47" s="17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="G47" s="17"/>
-      <c r="H47" s="14"/>
+        <v>128</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="H47" s="14" t="s">
+        <v>128</v>
+      </c>
       <c r="I47" s="15"/>
       <c r="J47" s="18"/>
       <c r="K47" s="16"/>
@@ -2419,13 +2447,17 @@
       <c r="C48" s="31"/>
       <c r="D48" s="45"/>
       <c r="E48" s="17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="G48" s="17"/>
-      <c r="H48" s="14"/>
+        <v>128</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="H48" s="14" t="s">
+        <v>128</v>
+      </c>
       <c r="I48" s="15"/>
       <c r="J48" s="18"/>
       <c r="K48" s="16"/>
@@ -2436,13 +2468,17 @@
       <c r="C49" s="31"/>
       <c r="D49" s="45"/>
       <c r="E49" s="17" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="G49" s="17"/>
-      <c r="H49" s="14"/>
+        <v>128</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="H49" s="14" t="s">
+        <v>128</v>
+      </c>
       <c r="I49" s="15"/>
       <c r="J49" s="18"/>
       <c r="K49" s="16"/>
@@ -2451,52 +2487,56 @@
     <row r="50" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="28"/>
       <c r="C50" s="31"/>
-      <c r="D50" s="45"/>
+      <c r="D50" s="46"/>
       <c r="E50" s="17" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="G50" s="17"/>
-      <c r="H50" s="14"/>
+        <v>128</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="H50" s="14" t="s">
+        <v>128</v>
+      </c>
       <c r="I50" s="15"/>
       <c r="J50" s="18"/>
       <c r="K50" s="16"/>
       <c r="L50" s="16"/>
     </row>
     <row r="51" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="28"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="46"/>
+      <c r="B51" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D51" s="26" t="s">
+        <v>48</v>
+      </c>
       <c r="E51" s="17" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G51" s="17"/>
-      <c r="H51" s="14"/>
+      <c r="H51" s="17"/>
       <c r="I51" s="15"/>
       <c r="J51" s="18"/>
       <c r="K51" s="16"/>
       <c r="L51" s="16"/>
     </row>
     <row r="52" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="C52" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="D52" s="26" t="s">
-        <v>48</v>
-      </c>
+      <c r="B52" s="29"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="17"/>
       <c r="E52" s="17" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G52" s="17"/>
       <c r="H52" s="17"/>
@@ -2507,13 +2547,13 @@
     </row>
     <row r="53" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="29"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="17"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="25"/>
       <c r="E53" s="17" t="s">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G53" s="17"/>
       <c r="H53" s="17"/>
@@ -2523,14 +2563,16 @@
       <c r="L53" s="16"/>
     </row>
     <row r="54" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="29"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="17" t="s">
-        <v>52</v>
+      <c r="B54" s="32"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G54" s="17"/>
       <c r="H54" s="17"/>
@@ -2541,15 +2583,13 @@
     </row>
     <row r="55" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="32"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="25" t="s">
-        <v>53</v>
-      </c>
+      <c r="C55" s="35"/>
+      <c r="D55" s="22"/>
       <c r="E55" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G55" s="17"/>
       <c r="H55" s="17"/>
@@ -2559,14 +2599,16 @@
       <c r="L55" s="16"/>
     </row>
     <row r="56" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="32"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="22"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="17" t="s">
+        <v>85</v>
+      </c>
       <c r="E56" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G56" s="17"/>
       <c r="H56" s="17"/>
@@ -2577,15 +2619,13 @@
     </row>
     <row r="57" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="29"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>86</v>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="17" t="s">
+        <v>87</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G57" s="17"/>
       <c r="H57" s="17"/>
@@ -2596,13 +2636,13 @@
     </row>
     <row r="58" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="29"/>
-      <c r="C58" s="22"/>
+      <c r="C58" s="31"/>
       <c r="D58" s="22"/>
-      <c r="E58" s="17" t="s">
-        <v>87</v>
+      <c r="E58" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G58" s="17"/>
       <c r="H58" s="17"/>
@@ -2615,11 +2655,11 @@
       <c r="B59" s="29"/>
       <c r="C59" s="31"/>
       <c r="D59" s="22"/>
-      <c r="E59" s="7" t="s">
-        <v>96</v>
+      <c r="E59" s="17" t="s">
+        <v>88</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G59" s="17"/>
       <c r="H59" s="17"/>
@@ -2630,13 +2670,15 @@
     </row>
     <row r="60" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="29"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="22"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="25" t="s">
+        <v>54</v>
+      </c>
       <c r="E60" s="17" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G60" s="17"/>
       <c r="H60" s="17"/>
@@ -2648,14 +2690,12 @@
     <row r="61" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="29"/>
       <c r="C61" s="22"/>
-      <c r="D61" s="25" t="s">
-        <v>54</v>
-      </c>
+      <c r="D61" s="22"/>
       <c r="E61" s="17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F61" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G61" s="17"/>
       <c r="H61" s="17"/>
@@ -2669,10 +2709,10 @@
       <c r="C62" s="22"/>
       <c r="D62" s="22"/>
       <c r="E62" s="17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G62" s="17"/>
       <c r="H62" s="17"/>
@@ -2684,12 +2724,14 @@
     <row r="63" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="29"/>
       <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
+      <c r="D63" s="25" t="s">
+        <v>111</v>
+      </c>
       <c r="E63" s="17" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F63" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G63" s="17"/>
       <c r="H63" s="17"/>
@@ -2701,14 +2743,12 @@
     <row r="64" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="29"/>
       <c r="C64" s="22"/>
-      <c r="D64" s="25" t="s">
-        <v>111</v>
-      </c>
+      <c r="D64" s="22"/>
       <c r="E64" s="17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F64" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G64" s="17"/>
       <c r="H64" s="17"/>
@@ -2722,10 +2762,10 @@
       <c r="C65" s="22"/>
       <c r="D65" s="22"/>
       <c r="E65" s="17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F65" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G65" s="17"/>
       <c r="H65" s="17"/>
@@ -2739,10 +2779,10 @@
       <c r="C66" s="22"/>
       <c r="D66" s="22"/>
       <c r="E66" s="17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F66" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G66" s="17"/>
       <c r="H66" s="17"/>
@@ -2756,10 +2796,10 @@
       <c r="C67" s="22"/>
       <c r="D67" s="22"/>
       <c r="E67" s="17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F67" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G67" s="17"/>
       <c r="H67" s="17"/>
@@ -2773,31 +2813,37 @@
       <c r="C68" s="22"/>
       <c r="D68" s="22"/>
       <c r="E68" s="17" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="G68" s="17"/>
+        <v>128</v>
+      </c>
+      <c r="G68" s="17" t="s">
+        <v>133</v>
+      </c>
       <c r="H68" s="17"/>
       <c r="I68" s="15"/>
       <c r="J68" s="18"/>
       <c r="K68" s="16"/>
       <c r="L68" s="16"/>
     </row>
-    <row r="69" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="29"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="17" t="s">
-        <v>112</v>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B69" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C69" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D69" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E69" s="34" t="s">
+        <v>92</v>
       </c>
       <c r="F69" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="G69" s="17" t="s">
-        <v>135</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G69" s="17"/>
       <c r="H69" s="17"/>
       <c r="I69" s="15"/>
       <c r="J69" s="18"/>
@@ -2805,20 +2851,14 @@
       <c r="L69" s="16"/>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B70" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="C70" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D70" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="E70" s="34" t="s">
-        <v>92</v>
+      <c r="B70" s="29"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G70" s="17"/>
       <c r="H70" s="17"/>
@@ -2827,15 +2867,15 @@
       <c r="K70" s="16"/>
       <c r="L70" s="16"/>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="29"/>
       <c r="C71" s="30"/>
       <c r="D71" s="22"/>
       <c r="E71" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F71" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G71" s="17"/>
       <c r="H71" s="17"/>
@@ -2848,11 +2888,11 @@
       <c r="B72" s="29"/>
       <c r="C72" s="30"/>
       <c r="D72" s="22"/>
-      <c r="E72" s="7" t="s">
-        <v>104</v>
+      <c r="E72" s="34" t="s">
+        <v>105</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G72" s="17"/>
       <c r="H72" s="17"/>
@@ -2866,10 +2906,10 @@
       <c r="C73" s="30"/>
       <c r="D73" s="22"/>
       <c r="E73" s="34" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F73" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G73" s="17"/>
       <c r="H73" s="17"/>
@@ -2878,15 +2918,15 @@
       <c r="K73" s="16"/>
       <c r="L73" s="16"/>
     </row>
-    <row r="74" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="29"/>
       <c r="C74" s="30"/>
       <c r="D74" s="22"/>
-      <c r="E74" s="34" t="s">
-        <v>106</v>
+      <c r="E74" s="23" t="s">
+        <v>89</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G74" s="17"/>
       <c r="H74" s="17"/>
@@ -2899,11 +2939,11 @@
       <c r="B75" s="29"/>
       <c r="C75" s="30"/>
       <c r="D75" s="22"/>
-      <c r="E75" s="23" t="s">
-        <v>89</v>
+      <c r="E75" s="17" t="s">
+        <v>97</v>
       </c>
       <c r="F75" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G75" s="17"/>
       <c r="H75" s="17"/>
@@ -2917,10 +2957,10 @@
       <c r="C76" s="30"/>
       <c r="D76" s="22"/>
       <c r="E76" s="17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G76" s="17"/>
       <c r="H76" s="17"/>
@@ -2929,15 +2969,17 @@
       <c r="K76" s="16"/>
       <c r="L76" s="16"/>
     </row>
-    <row r="77" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="29"/>
-      <c r="C77" s="30"/>
-      <c r="D77" s="22"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="25" t="s">
+        <v>25</v>
+      </c>
       <c r="E77" s="17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F77" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G77" s="17"/>
       <c r="H77" s="17"/>
@@ -2950,13 +2992,13 @@
       <c r="B78" s="29"/>
       <c r="C78" s="22"/>
       <c r="D78" s="25" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F78" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G78" s="17"/>
       <c r="H78" s="17"/>
@@ -2965,17 +3007,17 @@
       <c r="K78" s="16"/>
       <c r="L78" s="16"/>
     </row>
-    <row r="79" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="29"/>
       <c r="C79" s="22"/>
       <c r="D79" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E79" s="17" t="s">
-        <v>100</v>
+        <v>51</v>
+      </c>
+      <c r="E79" s="23" t="s">
+        <v>93</v>
       </c>
       <c r="F79" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G79" s="17"/>
       <c r="H79" s="17"/>
@@ -2987,14 +3029,12 @@
     <row r="80" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="29"/>
       <c r="C80" s="22"/>
-      <c r="D80" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="E80" s="23" t="s">
-        <v>93</v>
+      <c r="D80" s="22"/>
+      <c r="E80" s="17" t="s">
+        <v>94</v>
       </c>
       <c r="F80" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G80" s="17"/>
       <c r="H80" s="17"/>
@@ -3003,15 +3043,15 @@
       <c r="K80" s="16"/>
       <c r="L80" s="16"/>
     </row>
-    <row r="81" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="29"/>
       <c r="C81" s="22"/>
       <c r="D81" s="22"/>
       <c r="E81" s="17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F81" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G81" s="17"/>
       <c r="H81" s="17"/>
@@ -3025,10 +3065,10 @@
       <c r="C82" s="22"/>
       <c r="D82" s="22"/>
       <c r="E82" s="17" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F82" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G82" s="17"/>
       <c r="H82" s="17"/>
@@ -3042,40 +3082,23 @@
       <c r="C83" s="22"/>
       <c r="D83" s="22"/>
       <c r="E83" s="17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F83" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="G83" s="17"/>
+        <v>128</v>
+      </c>
+      <c r="G83" s="17" t="s">
+        <v>133</v>
+      </c>
       <c r="H83" s="17"/>
       <c r="I83" s="15"/>
       <c r="J83" s="18"/>
       <c r="K83" s="16"/>
       <c r="L83" s="16"/>
     </row>
-    <row r="84" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="29"/>
-      <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="F84" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="G84" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="H84" s="17"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="18"/>
-      <c r="K84" s="16"/>
-      <c r="L84" s="16"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="D46:D50"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
